--- a/Equipe309.xlsx
+++ b/Equipe309.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/technophil98/Developer/Charge-LOG2990/correction-script/log2990-309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="11_0399FDAFF553982BC95E41E1299C85101AFC410D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59F25C74-7EF7-49B9-850B-019B524CA9C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBCC817-4EAC-8D44-8536-088720765BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Sudoku" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Scrabble" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Sommaire" sheetId="9" r:id="rId6"/>
-    <sheet name="Fonctionnalités" sheetId="8" r:id="rId7"/>
-    <sheet name="Assurance Qualité" sheetId="6" r:id="rId8"/>
+    <sheet name="Assurance Qualité" sheetId="6" r:id="rId7"/>
+    <sheet name="Fonctionnalités" sheetId="8" r:id="rId8"/>
     <sheet name="Curling" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -286,6 +286,171 @@
     <t>Grille de correction Projet 2</t>
   </si>
   <si>
+    <t>Critère</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Poid</t>
+  </si>
+  <si>
+    <t>Qualité des classes</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>La classe n'a qu'une responsabilitée et elle est non triviale. Son nom est court, clair pertinent et représentatif de sa responsabilité. La classe ne contient que l'information qu'elle nécessite (idéalement moins de 7 attributs)</t>
+  </si>
+  <si>
+    <t>Trop d'attributs: BrushService, LineService, PencilService, ShapeService
+Attributs non-utilisés: DrawablePropertiesService, CreateNewService</t>
+  </si>
+  <si>
+    <t>La classe minimise l'accessibilité des membres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peut être davantage restraint: DrawerService, </t>
+  </si>
+  <si>
+    <t>Les attributs de la classe sont initialisés dans le constructeur</t>
+  </si>
+  <si>
+    <t>Total de la catégorie</t>
+  </si>
+  <si>
+    <t>Qualité des fonctions</t>
+  </si>
+  <si>
+    <t>La fonction ne fait qu'une chose et elle est non triviale. Son nom est clair, pertinent, représentatif de sa tâche et respecte les conventions.</t>
+  </si>
+  <si>
+    <t>_resizeCallback, et stack.ts mne respectent pas les conventions</t>
+  </si>
+  <si>
+    <t>L'ordre des paramètres est cohérent. (x, y, z) plutôt que (y, z, x) par exemple.</t>
+  </si>
+  <si>
+    <t>La fonction doit minimiser le nombre de paramètres (idéalement 0)</t>
+  </si>
+  <si>
+    <t>Tous les paramètres de fonction sont utilisés</t>
+  </si>
+  <si>
+    <t>Des listener de souris n'utilise pas toujours le MouseEvent</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Abde</t>
+  </si>
+  <si>
+    <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques)</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de bloc "catch" vide, ou s'ils sont présents, ils sont documentés.</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Bonne utilisation des constantes.</t>
+  </si>
+  <si>
+    <t>Les variables et constantes ont des noms explicites qui respectent les conventions de nommage.</t>
+  </si>
+  <si>
+    <t>Expression Booléennes</t>
+  </si>
+  <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>Les expression booléennes ne sont pas comparées à true et false</t>
+  </si>
+  <si>
+    <t>./src/app/components/user-guide/user-guide.component.ts:115:    if (indexes[2] === true) {</t>
+  </si>
+  <si>
+    <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
+  </si>
+  <si>
+    <t>Pas d'expressions booléennes complexes. Des prédicats sont utilisés pour simplifier les conditions complexes</t>
+  </si>
+  <si>
+    <t>Qualité Générale</t>
+  </si>
+  <si>
+    <t>NB:  getTool(toFind: Tools): DrawableService | undefined {
+    if (this.tools.has(toFind)) {
+      return this.tools.get(toFind);
+    }
+    return undefined;
+  } == return this.tools.get(toFind)</t>
+  </si>
+  <si>
+    <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
+  </si>
+  <si>
+    <t>Les catégories dans user-guide componenent devraient être un interface. FindIndex retourne quoi?</t>
+  </si>
+  <si>
+    <t>Les objets javascript ne sont pas utilisés, des classes ou des interfaces sont utilisés</t>
+  </si>
+  <si>
+    <t>Le code est correctement indenté et organisé en groupes logiques.</t>
+  </si>
+  <si>
+    <t>Il y a une séparation entre le code typescript, html et css.</t>
+  </si>
+  <si>
+    <t>Évitez les ids surtout dans color pickers, aussi n'utilisez pas le h6, h4, etc pour simplement la taille, surtout si vous allez remettre la taill à 1em.  OK pour la couleur du background avec la bordure</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>Les commentaires sont pertinents</t>
+  </si>
+  <si>
+    <t>Code commenté dans pencil-service</t>
+  </si>
+  <si>
+    <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)</t>
+  </si>
+  <si>
+    <t>Remettez la rule tslint pour no-string-literal à true et désactivez la dans les fichiers pour les tests. Prochaine fois, les points seront enlevés pour des modifications dans le TSLINT</t>
+  </si>
+  <si>
+    <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
+  </si>
+  <si>
+    <t>Le logiciel a des performances acceptables</t>
+  </si>
+  <si>
+    <t>Gestion de Versions</t>
+  </si>
+  <si>
+    <t>La branche de release possède le bon TAG pour les remises de sprint (sprint1, sprint2, ...)</t>
+  </si>
+  <si>
+    <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
+  </si>
+  <si>
+    <t>Test patch, More linting, Testing..., fixed auto sizing (À quoi vous faites référence?)</t>
+  </si>
+  <si>
+    <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou de package-lock.json et pas de package.json dans des dossiers autre que client ou server)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Note assurance qualité</t>
+  </si>
+  <si>
     <t>Fonctionnalité</t>
   </si>
   <si>
@@ -295,25 +460,16 @@
     <t>Note finale</t>
   </si>
   <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
     <t>Outil-Ligne</t>
   </si>
   <si>
     <t>À moins de 3px la ligne est crée</t>
   </si>
   <si>
-    <t>Abde</t>
-  </si>
-  <si>
     <t>Point d'entrée dans l'application</t>
   </si>
   <si>
     <t xml:space="preserve">Pas de test pour le bouton continuer un dessin, </t>
-  </si>
-  <si>
-    <t>Emilio</t>
   </si>
   <si>
     <t>Vue de dessin</t>
@@ -322,9 +478,6 @@
     <t>❌ Il est possible de faire «disparaitre» la zone de dessin si cette dernière est de la même couleur que le fond.
 — TESTS —
 ❤ Bravo!</t>
-  </si>
-  <si>
-    <t>Phil</t>
   </si>
   <si>
     <t>Créer un nouveau dessin</t>
@@ -461,162 +614,6 @@
     <t>Envoyer le dessin par courriel</t>
   </si>
   <si>
-    <t>Critère</t>
-  </si>
-  <si>
-    <t>Poid</t>
-  </si>
-  <si>
-    <t>Qualité des classes</t>
-  </si>
-  <si>
-    <t>La classe n'a qu'une responsabilitée et elle est non triviale. Son nom est court, clair pertinent et représentatif de sa responsabilité. La classe ne contient que l'information qu'elle nécessite (idéalement moins de 7 attributs)</t>
-  </si>
-  <si>
-    <t>Trop d'attributs: BrushService, LineService, PencilService, ShapeService
-Attributs non-utilisés: DrawablePropertiesService, CreateNewService</t>
-  </si>
-  <si>
-    <t>La classe minimise l'accessibilité des membres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peut être davantage restraint: DrawerService, </t>
-  </si>
-  <si>
-    <t>Les attributs de la classe sont initialisés dans le constructeur</t>
-  </si>
-  <si>
-    <t>Total de la catégorie</t>
-  </si>
-  <si>
-    <t>Qualité des fonctions</t>
-  </si>
-  <si>
-    <t>La fonction ne fait qu'une chose et elle est non triviale. Son nom est clair, pertinent, représentatif de sa tâche et respecte les conventions.</t>
-  </si>
-  <si>
-    <t>_resizeCallback, et stack.ts mne respectent pas les conventions</t>
-  </si>
-  <si>
-    <t>L'ordre des paramètres est cohérent. (x, y, z) plutôt que (y, z, x) par exemple.</t>
-  </si>
-  <si>
-    <t>La fonction doit minimiser le nombre de paramètres (idéalement 0)</t>
-  </si>
-  <si>
-    <t>Tous les paramètres de fonction sont utilisés</t>
-  </si>
-  <si>
-    <t>Des listener de souris n'utilise pas toujours le MouseEvent</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
-  </si>
-  <si>
-    <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques)</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de bloc "catch" vide, ou s'ils sont présents, ils sont documentés.</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Bonne utilisation des constantes.</t>
-  </si>
-  <si>
-    <t>constants.ts, SVGProperties: Quelque constantes non-utilisés</t>
-  </si>
-  <si>
-    <t>Les variables et constantes ont des noms explicites qui respectent les conventions de nommage.</t>
-  </si>
-  <si>
-    <t>Expression Booléennes</t>
-  </si>
-  <si>
-    <t>Les expression booléennes ne sont pas comparées à true et false</t>
-  </si>
-  <si>
-    <t>./src/app/components/user-guide/user-guide.component.ts:115:    if (indexes[2] === true) {</t>
-  </si>
-  <si>
-    <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
-  </si>
-  <si>
-    <t>Pas d'expressions booléennes complexes. Des prédicats sont utilisés pour simplifier les conditions complexes</t>
-  </si>
-  <si>
-    <t>Qualité Générale</t>
-  </si>
-  <si>
-    <t>NB:  getTool(toFind: Tools): DrawableService | undefined {
-    if (this.tools.has(toFind)) {
-      return this.tools.get(toFind);
-    }
-    return undefined;
-  } == return this.tools.get(toFind)</t>
-  </si>
-  <si>
-    <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
-  </si>
-  <si>
-    <t>Les catégories dans user-guide componenent devraient être un interface. FindIndex retourne quoi?</t>
-  </si>
-  <si>
-    <t>Les objets javascript ne sont pas utilisés, des classes ou des interfaces sont utilisés</t>
-  </si>
-  <si>
-    <t>Le code est correctement indenté et organisé en groupes logiques.</t>
-  </si>
-  <si>
-    <t>Il y a une séparation entre le code typescript, html et css.</t>
-  </si>
-  <si>
-    <t>Évitez les ids surtout dans color pickers, aussi n'utilisez pas le h6, h4, etc pour simplement la taille, surtout si vous allez remettre la taill à 1em.  OK pour la couleur du background avec la bordure</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de duplication de code.</t>
-  </si>
-  <si>
-    <t>Les commentaires sont pertinents</t>
-  </si>
-  <si>
-    <t>Code commenté dans pencil-service</t>
-  </si>
-  <si>
-    <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)</t>
-  </si>
-  <si>
-    <t>Remettez la rule tslint pour no-string-literal à true et désactivez la dans les fichiers pour les tests. Prochaine fois, les points seront enlevés pour des modifications dans le TSLINT</t>
-  </si>
-  <si>
-    <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
-  </si>
-  <si>
-    <t>Le logiciel a des performances acceptables</t>
-  </si>
-  <si>
-    <t>Gestion de Versions</t>
-  </si>
-  <si>
-    <t>La branche de release possède le bon TAG pour les remises de sprint (sprint1, sprint2, ...)</t>
-  </si>
-  <si>
-    <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
-  </si>
-  <si>
-    <t>Test patch, More linting, Testing..., fixed auto sizing (À quoi vous faites référence?)</t>
-  </si>
-  <si>
-    <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou de package-lock.json et pas de package.json dans des dossiers autre que client ou server)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Note assurance qualité</t>
-  </si>
-  <si>
     <t>Implémentation d’un joueur virtuel avec deux niveaux: facile et difficile</t>
   </si>
   <si>
@@ -687,13 +684,16 @@
   </si>
   <si>
     <t>Score du Curling</t>
+  </si>
+  <si>
+    <t>Phil (Mis à jour 20 fev 14h20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2810,7 +2810,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3529,6 +3529,7 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3544,6 +3545,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3595,79 +3659,18 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3751,9 +3754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3791,7 +3794,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3897,7 +3900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4053,16 +4056,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -4077,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4269,13 +4272,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4441,7 +4444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4507,35 +4510,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15"/>
-    <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="290" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291" t="s">
+      <c r="D2" s="291"/>
+      <c r="E2" s="292" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="291"/>
-      <c r="G2" s="292" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="292"/>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="H2" s="293"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -4557,7 +4559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>Attention la somme des poids n'égale pas 100%</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>Attention la somme des poids n'égale pas 100%</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -4780,22 +4782,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15"/>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -4814,11 +4815,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="294" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -4827,9 +4828,9 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+      <c r="G3" s="294"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>5</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>10</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>12</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>13</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>14</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>15</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>16</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>17</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>18</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
         <v>19</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
         <v>20</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="72" t="s">
         <v>21</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
         <v>22</v>
       </c>
@@ -5089,7 +5090,7 @@
       </c>
       <c r="G22" s="85"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="86" t="s">
         <v>23</v>
       </c>
@@ -5115,7 +5116,7 @@
       </c>
       <c r="G23" s="85"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="92" t="s">
         <v>53</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
         <v>54</v>
       </c>
@@ -5149,12 +5150,12 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="H27" s="294" t="s">
+      <c r="H27" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="294"/>
-    </row>
-    <row r="28" spans="1:9" ht="15">
+      <c r="I27" s="295"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>56</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="105" t="s">
         <v>60</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
         <v>61</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="113" t="s">
         <v>62</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="113" t="s">
         <v>63</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="113" t="s">
         <v>64</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="113" t="s">
         <v>65</v>
       </c>
@@ -5268,7 +5269,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="113" t="s">
         <v>66</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="121" t="s">
         <v>67</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="129" t="s">
         <v>68</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="129" t="s">
         <v>69</v>
       </c>
@@ -5358,7 +5359,7 @@
       <c r="H38" s="137"/>
       <c r="I38" s="137"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="138"/>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -5366,7 +5367,7 @@
       <c r="E39" s="138"/>
       <c r="F39" s="138"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -5374,7 +5375,7 @@
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="92" t="s">
         <v>70</v>
       </c>
@@ -5399,8 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15"/>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="92" t="s">
         <v>71</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="92" t="s">
         <v>72</v>
       </c>
@@ -5473,22 +5473,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15"/>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -5507,11 +5506,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="294" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -5520,9 +5519,9 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="G3" s="294"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>24</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>25</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>26</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>27</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>28</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>29</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>30</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>31</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>32</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>33</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>36</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>37</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
         <v>38</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
         <v>39</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
         <v>40</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="65" t="s">
         <v>41</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
         <v>42</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="s">
         <v>43</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
         <v>44</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="79" t="s">
         <v>22</v>
       </c>
@@ -5834,7 +5833,7 @@
       </c>
       <c r="G26" s="85"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="s">
         <v>23</v>
       </c>
@@ -5860,7 +5859,7 @@
       </c>
       <c r="G27" s="85"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="92" t="s">
         <v>53</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
         <v>54</v>
       </c>
@@ -5894,12 +5893,12 @@
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="85"/>
-      <c r="H31" s="294" t="s">
+      <c r="H31" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="294"/>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+      <c r="I31" s="295"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>56</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="105" t="s">
         <v>60</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="113" t="s">
         <v>61</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="113" t="s">
         <v>62</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
         <v>63</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="113" t="s">
         <v>64</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="113" t="s">
         <v>65</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="113" t="s">
         <v>66</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="121" t="s">
         <v>67</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="129" t="s">
         <v>68</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="129" t="s">
         <v>69</v>
       </c>
@@ -6103,7 +6102,7 @@
       <c r="H42" s="137"/>
       <c r="I42" s="137"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="138"/>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
@@ -6111,7 +6110,7 @@
       <c r="E43" s="138"/>
       <c r="F43" s="138"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="85"/>
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
@@ -6119,7 +6118,7 @@
       <c r="E44" s="85"/>
       <c r="F44" s="85"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="92" t="s">
         <v>70</v>
       </c>
@@ -6144,8 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15"/>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="92" t="s">
         <v>73</v>
       </c>
@@ -6170,7 +6168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="92" t="s">
         <v>72</v>
       </c>
@@ -6224,16 +6222,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="217"/>
       <c r="B3" s="266" t="s">
         <v>74</v>
@@ -6254,7 +6252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="268" t="s">
         <v>0</v>
       </c>
@@ -6264,21 +6262,21 @@
       </c>
       <c r="C4" s="270">
         <f>'Assurance Qualité'!B49</f>
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="270">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
-        <v>0.7857712418300653</v>
+        <v>0.83077124183006523</v>
       </c>
       <c r="F4" s="281">
         <v>15</v>
       </c>
       <c r="G4" s="280">
         <f>D4*F4</f>
-        <v>11.786568627450979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12.461568627450978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>1</v>
       </c>
@@ -6302,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="274" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="277" t="s">
         <v>79</v>
       </c>
@@ -6347,21 +6345,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="303" t="s">
         <v>80</v>
       </c>
@@ -6370,974 +6370,28 @@
       <c r="D1" s="304"/>
       <c r="E1" s="304"/>
       <c r="F1" s="304"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="218"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="303" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-    </row>
-    <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="219" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="306">
-        <v>9606529</v>
-      </c>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="307"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="220" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="221" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="221" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="221" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="222" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="223" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="224">
-        <f>19/20</f>
-        <v>0.95</v>
-      </c>
-      <c r="C8" s="224">
-        <v>1</v>
-      </c>
-      <c r="D8" s="224">
-        <v>16</v>
-      </c>
-      <c r="E8" s="224">
-        <f t="shared" ref="E8:E13" si="0">B8*C8*D8</f>
-        <v>15.2</v>
-      </c>
-      <c r="F8" s="226" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="223" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="224">
-        <v>1</v>
-      </c>
-      <c r="C9" s="224">
-        <v>1</v>
-      </c>
-      <c r="D9" s="224">
-        <v>8</v>
-      </c>
-      <c r="E9" s="224">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F9" s="226" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="223" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="288">
-        <f>5/6</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C10" s="224">
-        <v>1</v>
-      </c>
-      <c r="D10" s="224">
-        <v>10</v>
-      </c>
-      <c r="E10" s="288">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="F10" s="226" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="223" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="288">
-        <f>13/17</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="C11" s="224">
-        <v>1</v>
-      </c>
-      <c r="D11" s="224">
-        <v>12</v>
-      </c>
-      <c r="E11" s="288">
-        <f t="shared" si="0"/>
-        <v>9.1764705882352935</v>
-      </c>
-      <c r="F11" s="226" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="223" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="288">
-        <f>17/18</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="C12" s="224">
-        <v>1</v>
-      </c>
-      <c r="D12" s="224">
-        <v>10</v>
-      </c>
-      <c r="E12" s="288">
-        <f t="shared" si="0"/>
-        <v>9.4444444444444446</v>
-      </c>
-      <c r="F12" s="226" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="223" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="224">
-        <f>13/16-0.1</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="C13" s="224">
-        <v>0</v>
-      </c>
-      <c r="D13" s="224">
-        <v>12</v>
-      </c>
-      <c r="E13" s="224">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="224">
-        <v>1</v>
-      </c>
-      <c r="C14" s="224">
-        <v>1</v>
-      </c>
-      <c r="D14" s="224">
-        <v>12</v>
-      </c>
-      <c r="E14" s="224">
-        <f t="shared" ref="E14:E16" si="1">B14*C14*D14</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="225"/>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="223" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="224">
-        <v>1</v>
-      </c>
-      <c r="C15" s="224">
-        <v>1</v>
-      </c>
-      <c r="D15" s="224">
-        <v>10</v>
-      </c>
-      <c r="E15" s="224">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F15" s="226"/>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="223" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="224">
-        <v>1</v>
-      </c>
-      <c r="C16" s="224">
-        <v>1</v>
-      </c>
-      <c r="D16" s="224">
-        <v>10</v>
-      </c>
-      <c r="E16" s="224">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F16" s="226" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="227" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="308"/>
-      <c r="C17" s="308"/>
-      <c r="D17" s="289">
-        <f>SUM(D8:D16)</f>
-        <v>100</v>
-      </c>
-      <c r="E17" s="279">
-        <f>SUM(E8:E16)/D17 - E19*D19 - E18*D18</f>
-        <v>0.82154248366013061</v>
-      </c>
-      <c r="F17" s="228"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="229" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="230">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="229" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="230">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25">
-      <c r="A20" s="309" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="310"/>
-      <c r="C20" s="310"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
-      <c r="F20" s="311"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A21" s="239" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="295"/>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="297"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="239" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="231" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="231" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="231" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="231" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="240" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="239" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="231">
-        <v>12</v>
-      </c>
-      <c r="E23" s="231">
-        <f>B23*C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="240"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="239" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="253"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="231">
-        <v>8</v>
-      </c>
-      <c r="E24" s="231">
-        <f>B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="240"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="239" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="231">
-        <v>8</v>
-      </c>
-      <c r="E25" s="231">
-        <f>B25*C25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="240"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="239" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="253"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="231">
-        <v>4</v>
-      </c>
-      <c r="E26" s="231">
-        <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="240"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="239" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="253"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="231">
-        <v>5</v>
-      </c>
-      <c r="E27" s="231">
-        <f>B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="240"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="239" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="253"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="231">
-        <v>5</v>
-      </c>
-      <c r="E28" s="231">
-        <f t="shared" ref="E28:E38" si="2">B28*C28*D28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="240"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="239" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="253"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="231">
-        <v>14</v>
-      </c>
-      <c r="E29" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="240"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="239" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="231">
-        <v>6</v>
-      </c>
-      <c r="E30" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="240"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="239" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="253"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="231">
-        <v>8</v>
-      </c>
-      <c r="E31" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="240"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="239" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="253"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="231">
-        <v>4</v>
-      </c>
-      <c r="E32" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="240"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="239" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="231">
-        <v>4</v>
-      </c>
-      <c r="E33" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="240"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="252" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="253"/>
-      <c r="C34" s="253"/>
-      <c r="D34" s="253">
-        <v>6</v>
-      </c>
-      <c r="E34" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="254"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="252" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="253"/>
-      <c r="C35" s="253"/>
-      <c r="D35" s="253">
-        <v>6</v>
-      </c>
-      <c r="E35" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="254"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="253"/>
-      <c r="C36" s="253"/>
-      <c r="D36" s="253">
-        <v>4</v>
-      </c>
-      <c r="E36" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="254"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="252" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="253"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253">
-        <v>4</v>
-      </c>
-      <c r="E37" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="254"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253">
-        <v>2</v>
-      </c>
-      <c r="E38" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="254"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="241" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="263"/>
-      <c r="D39" s="263">
-        <f>SUM(D23:D38)</f>
-        <v>100</v>
-      </c>
-      <c r="E39" s="243">
-        <f>SUM(E23:E38)/D39 -E40*D40 -E41*D41-E42*D42</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="244"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="232" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="265"/>
-      <c r="D40" s="264">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="232" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="233">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="232" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="234">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="23.25">
-      <c r="A43" s="298" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="300"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="301"/>
-      <c r="C44" s="301"/>
-      <c r="D44" s="301"/>
-      <c r="E44" s="301"/>
-      <c r="F44" s="302"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="246" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="235" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="235" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="235" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="247" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="248" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="236">
-        <v>5</v>
-      </c>
-      <c r="E46" s="236">
-        <f t="shared" ref="E46:E52" si="3">B46*C46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="247"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="248" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="236"/>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236">
-        <v>10</v>
-      </c>
-      <c r="E47" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="249"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="248" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="236"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236">
-        <v>8</v>
-      </c>
-      <c r="E48" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="247"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="248" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="236"/>
-      <c r="C49" s="236"/>
-      <c r="D49" s="236">
-        <v>6</v>
-      </c>
-      <c r="E49" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="249"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="248" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="236"/>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236">
-        <v>6</v>
-      </c>
-      <c r="E50" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="247"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="248" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="236"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236">
-        <v>15</v>
-      </c>
-      <c r="E51" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="247"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="248" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="236"/>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236">
-        <v>8</v>
-      </c>
-      <c r="E52" s="236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="247"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="248" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="256"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="236">
-        <v>12</v>
-      </c>
-      <c r="E53" s="236">
-        <f t="shared" ref="E53:E57" si="4">B53*C53*D53</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="247"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="260" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="258"/>
-      <c r="C54" s="258"/>
-      <c r="D54" s="255">
-        <v>12</v>
-      </c>
-      <c r="E54" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="257"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="260" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="258"/>
-      <c r="C55" s="258"/>
-      <c r="D55" s="255">
-        <v>12</v>
-      </c>
-      <c r="E55" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="257"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="260" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="258"/>
-      <c r="C56" s="258"/>
-      <c r="D56" s="255">
-        <v>4</v>
-      </c>
-      <c r="E56" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="257"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="260" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="255">
-        <v>2</v>
-      </c>
-      <c r="E57" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="257"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="261" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="259"/>
-      <c r="C58" s="259"/>
-      <c r="D58" s="262">
-        <f>SUM(D46:D57)</f>
-        <v>100</v>
-      </c>
-      <c r="E58" s="250">
-        <f>SUM(E46:E57)/D58 - D59*E59  - D60*E60 - D61*E61</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="251"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="237" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="233">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="237" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="233">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="238" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="234">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:F20"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B17 B46:B57" xr:uid="{CC44C972-8B8F-4678-BAEB-D51FFB0200E2}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C16 C18 C46:C57" xr:uid="{DCFB5783-098F-4837-84E1-A329359B138C}">
-      <formula1>"0,0.25,0.50,0.75,1"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E41 E60" xr:uid="{301E7E41-CD71-4A91-B881-91EF87706901}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="1025" width="11.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="319" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="321"/>
+      <c r="G1" s="305"/>
       <c r="H1" s="216"/>
       <c r="I1" s="216"/>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H2" s="199"/>
       <c r="I2" s="199"/>
     </row>
-    <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="322" t="s">
+    <row r="3" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="306" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="324"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="308"/>
       <c r="H3" s="196"/>
       <c r="I3" s="196"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="145"/>
       <c r="B4" s="146"/>
       <c r="C4" s="146"/>
@@ -7348,49 +6402,49 @@
       <c r="H4" s="146"/>
       <c r="I4" s="146"/>
     </row>
-    <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="327" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="329"/>
-      <c r="D5" s="330" t="s">
+    <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="311" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="313"/>
+      <c r="D5" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="330"/>
-      <c r="F5" s="331" t="s">
+      <c r="E5" s="314"/>
+      <c r="F5" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="332"/>
+      <c r="G5" s="316"/>
       <c r="H5" s="195"/>
       <c r="I5" s="195"/>
-      <c r="J5" s="325" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="328"/>
+      <c r="J5" s="309" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="310"/>
+      <c r="L5" s="310"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="312"/>
       <c r="B6" s="147" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D6" s="149" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="150" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="201" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H6" s="195"/>
       <c r="I6" s="195"/>
@@ -7405,24 +6459,24 @@
       </c>
       <c r="M6" s="152"/>
     </row>
-    <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="312" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="314"/>
+    <row r="7" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="296" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="284" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I7" s="196"/>
     </row>
-    <row r="8" spans="1:13" ht="60">
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="202" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B8" s="153">
         <v>0.5</v>
@@ -7440,13 +6494,13 @@
       </c>
       <c r="H8" s="283"/>
       <c r="I8" s="197"/>
-      <c r="J8" s="333" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75">
+      <c r="J8" s="290" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="204" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="B9" s="158">
         <v>0.75</v>
@@ -7465,12 +6519,12 @@
       <c r="H9" s="283"/>
       <c r="I9" s="197"/>
       <c r="J9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="206" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="B10" s="158">
         <v>1</v>
@@ -7489,9 +6543,9 @@
       <c r="H10" s="283"/>
       <c r="I10" s="197"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B11" s="187">
         <f>SUMPRODUCT(B8:B10,C8:C10)</f>
@@ -7520,24 +6574,24 @@
       <c r="H11" s="283"/>
       <c r="I11" s="197"/>
     </row>
-    <row r="12" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="312" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="313"/>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="314"/>
+    <row r="12" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="296" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="297"/>
+      <c r="C12" s="297"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="298"/>
       <c r="H12" s="284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="196"/>
+    </row>
+    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+      <c r="A13" s="202" t="s">
         <v>93</v>
-      </c>
-      <c r="I12" s="196"/>
-    </row>
-    <row r="13" spans="1:13" ht="30">
-      <c r="A13" s="202" t="s">
-        <v>145</v>
       </c>
       <c r="B13" s="168">
         <v>0.5</v>
@@ -7556,12 +6610,12 @@
       <c r="H13" s="283"/>
       <c r="I13" s="197"/>
       <c r="J13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="204" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="B14" s="171">
         <v>1</v>
@@ -7580,9 +6634,9 @@
       <c r="H14" s="283"/>
       <c r="I14" s="197"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="204" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B15" s="171">
         <v>1</v>
@@ -7601,9 +6655,9 @@
       <c r="H15" s="283"/>
       <c r="I15" s="197"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="206" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B16" s="174">
         <v>0.5</v>
@@ -7622,12 +6676,12 @@
       <c r="H16" s="283"/>
       <c r="I16" s="197"/>
       <c r="J16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B17" s="187">
         <f>SUMPRODUCT(B13:B16,C13:C16)</f>
@@ -7656,24 +6710,24 @@
       <c r="H17" s="283"/>
       <c r="I17" s="197"/>
     </row>
-    <row r="18" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A18" s="312" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="313"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="314"/>
+    <row r="18" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="296" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="297"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="298"/>
       <c r="H18" s="284" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I18" s="196"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75">
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="204" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B19" s="158">
         <v>1</v>
@@ -7692,9 +6746,9 @@
       <c r="H19" s="283"/>
       <c r="I19" s="197"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75">
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B20" s="158">
         <v>1</v>
@@ -7713,9 +6767,9 @@
       <c r="H20" s="283"/>
       <c r="I20" s="197"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75">
+    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B21" s="187">
         <f>SUMPRODUCT(B19:B20,C19:C20)</f>
@@ -7744,26 +6798,28 @@
       <c r="H21" s="283"/>
       <c r="I21" s="197"/>
     </row>
-    <row r="22" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A22" s="312" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="313"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="313"/>
-      <c r="E22" s="313"/>
-      <c r="F22" s="313"/>
-      <c r="G22" s="314"/>
-      <c r="H22" s="284" t="s">
-        <v>93</v>
+    <row r="22" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="297"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="334" t="s">
+        <v>208</v>
       </c>
       <c r="I22" s="196"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75">
+    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="206" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="B23" s="171">
+        <v>1</v>
+      </c>
       <c r="C23" s="163">
         <v>4</v>
       </c>
@@ -7777,15 +6833,14 @@
       </c>
       <c r="H23" s="283"/>
       <c r="I23" s="197"/>
-      <c r="J23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30">
+    </row>
+    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A24" s="206" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="171"/>
+        <v>105</v>
+      </c>
+      <c r="B24" s="171">
+        <v>1</v>
+      </c>
       <c r="C24" s="163">
         <v>5</v>
       </c>
@@ -7800,13 +6855,13 @@
       <c r="H24" s="283"/>
       <c r="I24" s="197"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75">
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B25" s="187">
         <f>SUMPRODUCT(B23:B24,C23:C24)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C25" s="165">
         <f>SUM(C23:C24)</f>
@@ -7831,24 +6886,24 @@
       <c r="H25" s="283"/>
       <c r="I25" s="197"/>
     </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="312" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="313"/>
-      <c r="G26" s="314"/>
+    <row r="26" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="296" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="297"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="297"/>
+      <c r="G26" s="298"/>
       <c r="H26" s="284" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I26" s="196"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75">
+    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="202" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B27" s="178">
         <v>0.75</v>
@@ -7867,12 +6922,12 @@
       <c r="H27" s="283"/>
       <c r="I27" s="197"/>
       <c r="J27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="204" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B28" s="171">
         <v>1</v>
@@ -7891,9 +6946,9 @@
       <c r="H28" s="283"/>
       <c r="I28" s="197"/>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="206" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B29" s="171">
         <v>1</v>
@@ -7912,9 +6967,9 @@
       <c r="H29" s="284"/>
       <c r="I29" s="197"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75">
+    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B30" s="181">
         <f>SUMPRODUCT(B27:B29,C27:C29)</f>
@@ -7943,27 +6998,27 @@
       <c r="H30" s="284"/>
       <c r="I30" s="197"/>
     </row>
-    <row r="31" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A31" s="312" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="313"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="314"/>
+    <row r="31" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="296" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="297"/>
+      <c r="C31" s="297"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="298"/>
       <c r="H31" s="284" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I31" s="196"/>
       <c r="J31" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="204" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B32" s="171">
         <v>0.5</v>
@@ -7982,12 +7037,12 @@
       <c r="H32" s="283"/>
       <c r="I32" s="197"/>
       <c r="J32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="204" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B33" s="171">
         <v>1</v>
@@ -8006,9 +7061,9 @@
       <c r="H33" s="284"/>
       <c r="I33" s="197"/>
     </row>
-    <row r="34" spans="1:10" ht="18.75">
+    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="204" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B34" s="171">
         <v>1</v>
@@ -8027,9 +7082,9 @@
       <c r="H34" s="284"/>
       <c r="I34" s="197"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75">
+    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="204" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B35" s="171">
         <v>0.75</v>
@@ -8048,12 +7103,12 @@
       <c r="H35" s="284"/>
       <c r="I35" s="197"/>
       <c r="J35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="204" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B36" s="171">
         <v>1</v>
@@ -8072,9 +7127,9 @@
       <c r="H36" s="284"/>
       <c r="I36" s="197"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75">
+    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="204" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B37" s="171">
         <v>0.75</v>
@@ -8093,12 +7148,12 @@
       <c r="H37" s="284"/>
       <c r="I37" s="197"/>
       <c r="J37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.25">
       <c r="A38" s="206" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B38" s="171">
         <v>1</v>
@@ -8117,12 +7172,12 @@
       <c r="H38" s="283"/>
       <c r="I38" s="197"/>
       <c r="J38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="206" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B39" s="171">
         <v>1</v>
@@ -8137,9 +7192,9 @@
       <c r="H39" s="284"/>
       <c r="I39" s="197"/>
     </row>
-    <row r="40" spans="1:10" ht="18.75">
+    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="206" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B40" s="171">
         <v>1</v>
@@ -8158,9 +7213,9 @@
       <c r="H40" s="284"/>
       <c r="I40" s="197"/>
     </row>
-    <row r="41" spans="1:10" ht="18.75">
+    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="208" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B41" s="181">
         <f>SUMPRODUCT(B32:B40,C32:C40)</f>
@@ -8189,24 +7244,24 @@
       <c r="H41" s="284"/>
       <c r="I41" s="197"/>
     </row>
-    <row r="42" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A42" s="312" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="313"/>
-      <c r="C42" s="313"/>
-      <c r="D42" s="313"/>
-      <c r="E42" s="313"/>
-      <c r="F42" s="313"/>
-      <c r="G42" s="314"/>
+    <row r="42" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="296" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="297"/>
+      <c r="C42" s="297"/>
+      <c r="D42" s="297"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="298"/>
       <c r="H42" s="284" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I42" s="196"/>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="209" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="B43" s="178">
         <v>1</v>
@@ -8225,9 +7280,9 @@
       <c r="H43" s="284"/>
       <c r="I43" s="197"/>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="206" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B44" s="171">
         <v>0</v>
@@ -8246,12 +7301,12 @@
       <c r="H44" s="285"/>
       <c r="I44" s="197"/>
       <c r="J44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="204" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B45" s="287">
         <v>1</v>
@@ -8270,9 +7325,9 @@
       <c r="H45" s="286"/>
       <c r="I45" s="197"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75">
+    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="211" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B46" s="187">
         <f>SUMPRODUCT(B43:B45,C43:C45)</f>
@@ -8301,26 +7356,26 @@
       <c r="H46" s="285"/>
       <c r="I46" s="197"/>
     </row>
-    <row r="47" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A47" s="312" t="s">
+    <row r="47" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="296" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="313"/>
-      <c r="C47" s="313"/>
-      <c r="D47" s="313"/>
-      <c r="E47" s="313"/>
-      <c r="F47" s="313"/>
-      <c r="G47" s="314"/>
+      <c r="B47" s="297"/>
+      <c r="C47" s="297"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="297"/>
+      <c r="G47" s="298"/>
       <c r="H47" s="196"/>
       <c r="I47" s="196"/>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="213" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B48" s="190">
         <f t="shared" ref="B48:G48" si="0">B11+B17+B21+B25+B30+B41+B46</f>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C48" s="191">
         <f t="shared" si="0"/>
@@ -8345,55 +7400,52 @@
       <c r="H48" s="198"/>
       <c r="I48" s="197"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="215" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="315">
+        <v>133</v>
+      </c>
+      <c r="B49" s="299">
         <f>B48/C48</f>
-        <v>0.75</v>
-      </c>
-      <c r="C49" s="315"/>
-      <c r="D49" s="316">
+        <v>0.84</v>
+      </c>
+      <c r="C49" s="299"/>
+      <c r="D49" s="300">
         <f>D48/E48</f>
         <v>0</v>
       </c>
-      <c r="E49" s="316"/>
-      <c r="F49" s="317">
+      <c r="E49" s="300"/>
+      <c r="F49" s="301">
         <f>F48/G48</f>
         <v>0</v>
       </c>
-      <c r="G49" s="318"/>
+      <c r="G49" s="302"/>
       <c r="H49" s="200"/>
       <c r="I49" s="200"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H50" s="199"/>
       <c r="I50" s="199"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H51" s="199"/>
       <c r="I51" s="199"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H52" s="199"/>
       <c r="I52" s="199"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H53" s="199"/>
       <c r="I53" s="199"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H54" s="199"/>
       <c r="I54" s="199"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H55" s="199"/>
       <c r="I55" s="199"/>
     </row>
-    <row r="56" spans="1:9" ht="15"/>
-    <row r="57" spans="1:9" ht="15"/>
-    <row r="58" spans="1:9" ht="15"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:G1"/>
@@ -8430,24 +7482,967 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="325" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="217"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="218"/>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="325" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="327" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="327"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="328">
+        <v>9606529</v>
+      </c>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="329"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="220" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="221" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="221" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="222" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="223" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="224">
+        <f>19/20</f>
+        <v>0.95</v>
+      </c>
+      <c r="C8" s="224">
+        <v>1</v>
+      </c>
+      <c r="D8" s="224">
+        <v>16</v>
+      </c>
+      <c r="E8" s="224">
+        <f t="shared" ref="E8:E13" si="0">B8*C8*D8</f>
+        <v>15.2</v>
+      </c>
+      <c r="F8" s="226" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="223" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="224">
+        <v>1</v>
+      </c>
+      <c r="C9" s="224">
+        <v>1</v>
+      </c>
+      <c r="D9" s="224">
+        <v>8</v>
+      </c>
+      <c r="E9" s="224">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="226" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="223" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="288">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C10" s="224">
+        <v>1</v>
+      </c>
+      <c r="D10" s="224">
+        <v>10</v>
+      </c>
+      <c r="E10" s="288">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F10" s="226" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="223" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="288">
+        <f>13/17</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="C11" s="224">
+        <v>1</v>
+      </c>
+      <c r="D11" s="224">
+        <v>12</v>
+      </c>
+      <c r="E11" s="288">
+        <f t="shared" si="0"/>
+        <v>9.1764705882352935</v>
+      </c>
+      <c r="F11" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="223" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="288">
+        <f>17/18</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="C12" s="224">
+        <v>1</v>
+      </c>
+      <c r="D12" s="224">
+        <v>10</v>
+      </c>
+      <c r="E12" s="288">
+        <f t="shared" si="0"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="F12" s="226" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="223" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="224">
+        <f>13/16-0.1</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="C13" s="224">
+        <v>0</v>
+      </c>
+      <c r="D13" s="224">
+        <v>12</v>
+      </c>
+      <c r="E13" s="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="223" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="224">
+        <v>1</v>
+      </c>
+      <c r="C14" s="224">
+        <v>1</v>
+      </c>
+      <c r="D14" s="224">
+        <v>12</v>
+      </c>
+      <c r="E14" s="224">
+        <f t="shared" ref="E14:E16" si="1">B14*C14*D14</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="225"/>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="223" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="224">
+        <v>1</v>
+      </c>
+      <c r="C15" s="224">
+        <v>1</v>
+      </c>
+      <c r="D15" s="224">
+        <v>10</v>
+      </c>
+      <c r="E15" s="224">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="226"/>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="223" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="224">
+        <v>1</v>
+      </c>
+      <c r="C16" s="224">
+        <v>1</v>
+      </c>
+      <c r="D16" s="224">
+        <v>10</v>
+      </c>
+      <c r="E16" s="224">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="226" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="330"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="289">
+        <f>SUM(D8:D16)</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="279">
+        <f>SUM(E8:E16)/D17 - E19*D19 - E18*D18</f>
+        <v>0.82154248366013061</v>
+      </c>
+      <c r="F17" s="228"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="229" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="230">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="229" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="230">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="331" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="332"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="332"/>
+      <c r="F20" s="333"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="239" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="317"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="319"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="239" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="231" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="231" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="231" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="240" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="239" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="253"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="231">
+        <v>12</v>
+      </c>
+      <c r="E23" s="231">
+        <f>B23*C23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="240"/>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="239" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="253"/>
+      <c r="C24" s="253"/>
+      <c r="D24" s="231">
+        <v>8</v>
+      </c>
+      <c r="E24" s="231">
+        <f>B24*C24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="240"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="239" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="253"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="231">
+        <v>8</v>
+      </c>
+      <c r="E25" s="231">
+        <f>B25*C25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="240"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="253"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="231">
+        <v>4</v>
+      </c>
+      <c r="E26" s="231">
+        <f>B26*C26*D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="240"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="239" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="253"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="231">
+        <v>5</v>
+      </c>
+      <c r="E27" s="231">
+        <f>B27*C27*D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="240"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="239" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="253"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="231">
+        <v>5</v>
+      </c>
+      <c r="E28" s="231">
+        <f t="shared" ref="E28:E38" si="2">B28*C28*D28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="240"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="239" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="253"/>
+      <c r="C29" s="253"/>
+      <c r="D29" s="231">
+        <v>14</v>
+      </c>
+      <c r="E29" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="240"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="239" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="231">
+        <v>6</v>
+      </c>
+      <c r="E30" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="240"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="239" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="253"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="231">
+        <v>8</v>
+      </c>
+      <c r="E31" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="240"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="239" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="253"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="231">
+        <v>4</v>
+      </c>
+      <c r="E32" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="240"/>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="239" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="253"/>
+      <c r="C33" s="253"/>
+      <c r="D33" s="231">
+        <v>4</v>
+      </c>
+      <c r="E33" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="240"/>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="252" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="253"/>
+      <c r="C34" s="253"/>
+      <c r="D34" s="253">
+        <v>6</v>
+      </c>
+      <c r="E34" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="254"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="252" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="253">
+        <v>6</v>
+      </c>
+      <c r="E35" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="254"/>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="252" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="253"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="253">
+        <v>4</v>
+      </c>
+      <c r="E36" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="254"/>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="252" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="253"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="253">
+        <v>4</v>
+      </c>
+      <c r="E37" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="254"/>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="252" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253">
+        <v>2</v>
+      </c>
+      <c r="E38" s="231">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="254"/>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="241" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="242"/>
+      <c r="C39" s="263"/>
+      <c r="D39" s="263">
+        <f>SUM(D23:D38)</f>
+        <v>100</v>
+      </c>
+      <c r="E39" s="243">
+        <f>SUM(E23:E38)/D39 -E40*D40 -E41*D41-E42*D42</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="244"/>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="265"/>
+      <c r="D40" s="264">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="233">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="232" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="234">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="320" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="321"/>
+      <c r="C43" s="321"/>
+      <c r="D43" s="321"/>
+      <c r="E43" s="321"/>
+      <c r="F43" s="322"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="323"/>
+      <c r="C44" s="323"/>
+      <c r="D44" s="323"/>
+      <c r="E44" s="323"/>
+      <c r="F44" s="324"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="246" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="235" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="235" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="247" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="248" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236">
+        <v>5</v>
+      </c>
+      <c r="E46" s="236">
+        <f t="shared" ref="E46:E52" si="3">B46*C46*D46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="247"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="248" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236">
+        <v>10</v>
+      </c>
+      <c r="E47" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="249"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="248" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="236"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236">
+        <v>8</v>
+      </c>
+      <c r="E48" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="247"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="248" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="236"/>
+      <c r="C49" s="236"/>
+      <c r="D49" s="236">
+        <v>6</v>
+      </c>
+      <c r="E49" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="249"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="248" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="236"/>
+      <c r="C50" s="236"/>
+      <c r="D50" s="236">
+        <v>6</v>
+      </c>
+      <c r="E50" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="247"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="248" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236">
+        <v>15</v>
+      </c>
+      <c r="E51" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="247"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="248" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="236"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236">
+        <v>8</v>
+      </c>
+      <c r="E52" s="236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="247"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="248" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="256"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="236">
+        <v>12</v>
+      </c>
+      <c r="E53" s="236">
+        <f t="shared" ref="E53:E57" si="4">B53*C53*D53</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="247"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="260" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="258"/>
+      <c r="C54" s="258"/>
+      <c r="D54" s="255">
+        <v>12</v>
+      </c>
+      <c r="E54" s="236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="257"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="260" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="258"/>
+      <c r="C55" s="258"/>
+      <c r="D55" s="255">
+        <v>12</v>
+      </c>
+      <c r="E55" s="236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="257"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="260" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="258"/>
+      <c r="C56" s="258"/>
+      <c r="D56" s="255">
+        <v>4</v>
+      </c>
+      <c r="E56" s="236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="257"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="260" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="258"/>
+      <c r="C57" s="258"/>
+      <c r="D57" s="255">
+        <v>2</v>
+      </c>
+      <c r="E57" s="236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="257"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="261" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="259"/>
+      <c r="C58" s="259"/>
+      <c r="D58" s="262">
+        <f>SUM(D46:D57)</f>
+        <v>100</v>
+      </c>
+      <c r="E58" s="250">
+        <f>SUM(E46:E57)/D58 - D59*E59  - D60*E60 - D61*E61</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="251"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="233">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="237" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="233">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="238" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="234">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B17 B46:B57" xr:uid="{CC44C972-8B8F-4678-BAEB-D51FFB0200E2}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C16 C18 C46:C57" xr:uid="{DCFB5783-098F-4837-84E1-A329359B138C}">
+      <formula1>"0,0.25,0.50,0.75,1"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E41 E60" xr:uid="{301E7E41-CD71-4A91-B881-91EF87706901}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15"/>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -8466,11 +8461,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="294" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -8479,11 +8474,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="G3" s="294"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8494,7 +8489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
@@ -8507,9 +8502,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -8520,9 +8515,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -8533,9 +8528,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8546,9 +8541,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8559,9 +8554,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8572,9 +8567,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8585,9 +8580,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8598,9 +8593,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8611,9 +8606,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8624,9 +8619,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8637,9 +8632,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8650,9 +8645,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8663,9 +8658,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8676,9 +8671,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8689,9 +8684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8702,9 +8697,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8715,9 +8710,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8728,9 +8723,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8741,9 +8736,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8754,9 +8749,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8767,9 +8762,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8780,9 +8775,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8793,7 +8788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="79" t="s">
         <v>22</v>
       </c>
@@ -8819,7 +8814,7 @@
       </c>
       <c r="G28" s="85"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="86" t="s">
         <v>23</v>
       </c>
@@ -8845,7 +8840,7 @@
       </c>
       <c r="G29" s="85"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="92" t="s">
         <v>53</v>
       </c>
@@ -8870,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
         <v>54</v>
       </c>
@@ -8879,12 +8874,12 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
-      <c r="H33" s="294" t="s">
+      <c r="H33" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="294"/>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+      <c r="I33" s="295"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>56</v>
       </c>
@@ -8902,7 +8897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="105" t="s">
         <v>60</v>
       </c>
@@ -8918,7 +8913,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
         <v>61</v>
       </c>
@@ -8934,7 +8929,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="113" t="s">
         <v>62</v>
       </c>
@@ -8950,7 +8945,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="113" t="s">
         <v>63</v>
       </c>
@@ -8966,7 +8961,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="113" t="s">
         <v>64</v>
       </c>
@@ -8982,7 +8977,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="113" t="s">
         <v>65</v>
       </c>
@@ -8998,7 +8993,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="113" t="s">
         <v>66</v>
       </c>
@@ -9014,7 +9009,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="121" t="s">
         <v>67</v>
       </c>
@@ -9030,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="129" t="s">
         <v>68</v>
       </c>
@@ -9061,7 +9056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="129" t="s">
         <v>69</v>
       </c>
@@ -9088,7 +9083,7 @@
       <c r="H44" s="137"/>
       <c r="I44" s="137"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="138"/>
       <c r="B45" s="138"/>
       <c r="C45" s="138"/>
@@ -9096,7 +9091,7 @@
       <c r="E45" s="138"/>
       <c r="F45" s="138"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="85"/>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -9104,7 +9099,7 @@
       <c r="E46" s="85"/>
       <c r="F46" s="85"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="92" t="s">
         <v>70</v>
       </c>
@@ -9129,10 +9124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15"/>
-    <row r="50" spans="1:6" ht="15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9155,7 +9149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="92" t="s">
         <v>72</v>
       </c>
@@ -9349,13 +9343,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Equipe309.xlsx
+++ b/Equipe309.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/technophil98/Developer/Charge-LOG2990/correction-script/log2990-309/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/nikolay_radoev_polymtl_ca/Documents/Documents/LOG2990-H20/Groupe03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBCC817-4EAC-8D44-8536-088720765BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="11_0399FDAFF553982BC95E41E1299C85101AFC410D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1202EB1-8F62-4394-8B7F-0AA64526E5B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="230">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -289,6 +289,9 @@
     <t>Critère</t>
   </si>
   <si>
+    <t>Sprint 2 (Phil)</t>
+  </si>
+  <si>
     <t>Commentaires</t>
   </si>
   <si>
@@ -299,6 +302,9 @@
   </si>
   <si>
     <t>Phil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale. Son nom est court, clair pertinent et représentatif de sa responsabilité. La classe ne contient que l'information qu'elle nécessite (idéalement moins de 7 attributs)</t>
@@ -308,6 +314,9 @@
 Attributs non-utilisés: DrawablePropertiesService, CreateNewService</t>
   </si>
   <si>
+    <t xml:space="preserve">Attributs non-utilisés: ColorPickerComponent.initialColor, CreateNewService.workspaceSize et canvasEmpty, DrawablePropertiesService.fillColor et junctionDiameter, WorkingAreaComponent.router. </t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres</t>
   </si>
   <si>
@@ -329,6 +338,9 @@
     <t>_resizeCallback, et stack.ts mne respectent pas les conventions</t>
   </si>
   <si>
+    <t>_resizeCallback, et stack.ts ne respectent toujours pas les conventions</t>
+  </si>
+  <si>
     <t>L'ordre des paramètres est cohérent. (x, y, z) plutôt que (y, z, x) par exemple.</t>
   </si>
   <si>
@@ -341,6 +353,9 @@
     <t>Des listener de souris n'utilise pas toujours le MouseEvent</t>
   </si>
   <si>
+    <t>Paramètres de arrow function des fois non-utilisés. Les mouse listeners aussi</t>
+  </si>
+  <si>
     <t>Exceptions</t>
   </si>
   <si>
@@ -350,10 +365,16 @@
     <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques)</t>
   </si>
   <si>
+    <t>Erreurs génériques</t>
+  </si>
+  <si>
     <t>Il n'y a pas de bloc "catch" vide, ou s'ils sont présents, ils sont documentés.</t>
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Phil (Mis à jour 20 fev 14h20)</t>
   </si>
   <si>
     <t>Bonne utilisation des constantes.</t>
@@ -412,18 +433,27 @@
     <t>Il n'y a pas de duplication de code.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ellipse, Grid et Polygon, Eraser et Line: CSS dupliqué. Polygon et Shape: initializeProperties. </t>
+  </si>
+  <si>
     <t>Les commentaires sont pertinents</t>
   </si>
   <si>
     <t>Code commenté dans pencil-service</t>
   </si>
   <si>
+    <t xml:space="preserve">Code commenté dans coordinates-x-y.ts. </t>
+  </si>
+  <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)</t>
   </si>
   <si>
     <t>Remettez la rule tslint pour no-string-literal à true et désactivez la dans les fichiers pour les tests. Prochaine fois, les points seront enlevés pour des modifications dans le TSLINT</t>
   </si>
   <si>
+    <t xml:space="preserve">Vous n'avez pas remis la règle des no-string-literal... Vous avez des erreurs de ordered-imports et no-string-literal </t>
+  </si>
+  <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
   </si>
   <si>
@@ -443,6 +473,9 @@
   </si>
   <si>
     <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou de package-lock.json et pas de package.json dans des dossiers autre que client ou server)</t>
+  </si>
+  <si>
+    <t>.vscode, debug.log</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -506,7 +539,7 @@
   </si>
   <si>
     <t>Le passage de rectangle à carré et vice-versa se fait automatiquement, sans le déplacement de la souris. (-1)
-Shift ne fonctionne qu'une fois (-1). Lacher shift ne fait pas revenir à la forme initiale (-1) -10% car si on change d'outil pendant qu'on dessine on qu'on redessine, le rectangle bug . Certains de vos tests plantent. Pas de test valide</t>
+Shift ne fonctionne qu'une fois (-1). Lacher shift ne fait pas revenir à la forme initiale (-1) -10% car si on change d'outil pendant qu'on dessine on qu'on redessine, le rectangle bug . Certains de vos tests plantent. Pas de test valide. | Recorrection: +3/11 pour shift</t>
   </si>
   <si>
     <t>Outil-Pinceau</t>
@@ -530,33 +563,60 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>68f5cdb</t>
+  </si>
+  <si>
     <t>Annuler-refaire</t>
   </si>
   <si>
     <t>Sauvegarder le dessin sur serveur</t>
   </si>
   <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
     <t>Galerie de dessins</t>
   </si>
   <si>
+    <t>Bien, mais aurait être plus complet (avec le s message d'erreurs) (G)</t>
+  </si>
+  <si>
     <t>Base de données</t>
   </si>
   <si>
     <t>Filtrage par étiquettes</t>
   </si>
   <si>
+    <t>Il semble que l'application ne peut pas loader certains tags, ex: Abstract ou ce n'est pas un ou logique</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
+    <t>Vous ne devriez pas mocker toutes les choses que vous mocker, mais en général c'est bon. Test qui fail avec le filtre... (G)</t>
+  </si>
+  <si>
     <t>Outil-Sélection et inversion de sélection</t>
   </si>
   <si>
+    <t>Très bien pour les tests.</t>
+  </si>
+  <si>
     <t>Déplacement d'une sélection</t>
   </si>
   <si>
+    <t>Très bien pour les tests, a part un qui fail</t>
+  </si>
+  <si>
     <t>Outil-Efface</t>
   </si>
   <si>
+    <t>Test échoue et manquant. Carré de l'efface ne fonctionne pas</t>
+  </si>
+  <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
@@ -566,9 +626,15 @@
     <t>Outil-Aérosol</t>
   </si>
   <si>
+    <t>Test spray et timeout manquant</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
+    <t>Vous avez écrit Ellipse, cercle et rectange à l'intérieur des forme alors pour pas polygone? (Juste une suggestion)</t>
+  </si>
+  <si>
     <t>Outil-Ellipse</t>
   </si>
   <si>
@@ -684,16 +750,13 @@
   </si>
   <si>
     <t>Score du Curling</t>
-  </si>
-  <si>
-    <t>Phil (Mis à jour 20 fev 14h20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,6 +869,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2810,7 +2881,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3222,9 +3293,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3431,9 +3499,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3526,10 +3591,22 @@
     <xf numFmtId="2" fontId="0" fillId="15" borderId="108" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3545,6 +3622,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3554,6 +3655,24 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3564,48 +3683,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3659,18 +3736,15 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3754,9 +3828,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3794,7 +3868,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3900,7 +3974,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4056,16 +4130,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -4080,7 +4154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4104,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4112,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.95">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4120,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4128,7 +4202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32.1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -4144,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4152,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32.1">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4160,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32.1">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -4168,7 +4242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.95">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4176,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -4184,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -4192,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32.1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4200,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.95">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -4208,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.95">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4216,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4224,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4241,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4272,13 +4346,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.95">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32.1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4308,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -4316,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -4324,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32.1">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.95">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4340,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32.1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4348,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32.1">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4356,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="32.1">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -4372,7 +4446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4380,7 +4454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="32.1">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -4388,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.95">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -4396,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.95">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +4478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.95">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -4412,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.95">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -4420,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.95">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4428,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.95">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -4436,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="32.1">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4444,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.95">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4452,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.95">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -4460,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.95">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -4468,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4485,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4516,28 +4590,28 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="291" t="s">
+    <row r="2" spans="1:11">
+      <c r="C2" s="293" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="291"/>
-      <c r="E2" s="292" t="s">
+      <c r="D2" s="293"/>
+      <c r="E2" s="294" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="292"/>
-      <c r="G2" s="293" t="s">
+      <c r="F2" s="294"/>
+      <c r="G2" s="295" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="293"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="295"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -4559,7 +4633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4674,7 @@
         <v>Attention la somme des poids n'égale pas 100%</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
@@ -4682,7 +4756,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
@@ -4723,7 +4797,7 @@
         <v>Attention la somme des poids n'égale pas 100%</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -4788,15 +4862,15 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -4815,11 +4889,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="294" t="s">
+      <c r="G2" s="296" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -4828,9 +4902,9 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="294"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G3" s="296"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.95">
       <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
@@ -4843,7 +4917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.95">
       <c r="A5" s="65" t="s">
         <v>5</v>
       </c>
@@ -4856,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="32.1">
       <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
@@ -4869,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.95">
       <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
@@ -4882,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.95">
       <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
@@ -4895,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.95">
       <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
@@ -4908,7 +4982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32.1">
       <c r="A10" s="65" t="s">
         <v>10</v>
       </c>
@@ -4921,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.95">
       <c r="A11" s="65" t="s">
         <v>11</v>
       </c>
@@ -4934,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32.1">
       <c r="A12" s="65" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +5021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32.1">
       <c r="A13" s="65" t="s">
         <v>13</v>
       </c>
@@ -4960,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32.1">
       <c r="A14" s="65" t="s">
         <v>14</v>
       </c>
@@ -4973,7 +5047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32.1">
       <c r="A15" s="65" t="s">
         <v>15</v>
       </c>
@@ -4986,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.95">
       <c r="A16" s="65" t="s">
         <v>16</v>
       </c>
@@ -4999,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.95">
       <c r="A17" s="65" t="s">
         <v>17</v>
       </c>
@@ -5012,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="32.1">
       <c r="A18" s="65" t="s">
         <v>18</v>
       </c>
@@ -5025,7 +5099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.95">
       <c r="A19" s="65" t="s">
         <v>19</v>
       </c>
@@ -5038,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.95">
       <c r="A20" s="65" t="s">
         <v>20</v>
       </c>
@@ -5051,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.95">
       <c r="A21" s="72" t="s">
         <v>21</v>
       </c>
@@ -5064,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="79" t="s">
         <v>22</v>
       </c>
@@ -5090,7 +5164,7 @@
       </c>
       <c r="G22" s="85"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="86" t="s">
         <v>23</v>
       </c>
@@ -5116,7 +5190,7 @@
       </c>
       <c r="G23" s="85"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="92" t="s">
         <v>53</v>
       </c>
@@ -5141,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="46" t="s">
         <v>54</v>
       </c>
@@ -5150,12 +5224,12 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="H27" s="295" t="s">
+      <c r="H27" s="297" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="295"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="297"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
         <v>56</v>
       </c>
@@ -5173,7 +5247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="105" t="s">
         <v>60</v>
       </c>
@@ -5189,7 +5263,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="113" t="s">
         <v>61</v>
       </c>
@@ -5205,7 +5279,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="113" t="s">
         <v>62</v>
       </c>
@@ -5221,7 +5295,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="113" t="s">
         <v>63</v>
       </c>
@@ -5237,7 +5311,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="113" t="s">
         <v>64</v>
       </c>
@@ -5253,7 +5327,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="113" t="s">
         <v>65</v>
       </c>
@@ -5269,7 +5343,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="113" t="s">
         <v>66</v>
       </c>
@@ -5285,7 +5359,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="121" t="s">
         <v>67</v>
       </c>
@@ -5301,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="129" t="s">
         <v>68</v>
       </c>
@@ -5332,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="129" t="s">
         <v>69</v>
       </c>
@@ -5359,7 +5433,7 @@
       <c r="H38" s="137"/>
       <c r="I38" s="137"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="138"/>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -5367,7 +5441,7 @@
       <c r="E39" s="138"/>
       <c r="F39" s="138"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="85"/>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -5375,7 +5449,7 @@
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="92" t="s">
         <v>70</v>
       </c>
@@ -5400,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="92" t="s">
         <v>71</v>
       </c>
@@ -5425,7 +5499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="92" t="s">
         <v>72</v>
       </c>
@@ -5479,15 +5553,15 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -5506,11 +5580,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="294" t="s">
+      <c r="G2" s="296" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -5519,9 +5593,9 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="294"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G3" s="296"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.1">
       <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
@@ -5534,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="48">
       <c r="A5" s="65" t="s">
         <v>24</v>
       </c>
@@ -5547,7 +5621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.95">
       <c r="A6" s="65" t="s">
         <v>25</v>
       </c>
@@ -5560,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.95">
       <c r="A7" s="65" t="s">
         <v>26</v>
       </c>
@@ -5573,7 +5647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32.1">
       <c r="A8" s="65" t="s">
         <v>27</v>
       </c>
@@ -5586,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.95">
       <c r="A9" s="65" t="s">
         <v>28</v>
       </c>
@@ -5599,7 +5673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="32.1">
       <c r="A10" s="65" t="s">
         <v>29</v>
       </c>
@@ -5612,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="48">
       <c r="A11" s="65" t="s">
         <v>30</v>
       </c>
@@ -5625,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="32.1">
       <c r="A12" s="65" t="s">
         <v>31</v>
       </c>
@@ -5638,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.95">
       <c r="A13" s="65" t="s">
         <v>32</v>
       </c>
@@ -5651,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.95">
       <c r="A14" s="65" t="s">
         <v>33</v>
       </c>
@@ -5664,7 +5738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="48">
       <c r="A15" s="65" t="s">
         <v>34</v>
       </c>
@@ -5677,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32.1">
       <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
@@ -5690,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.95">
       <c r="A17" s="65" t="s">
         <v>36</v>
       </c>
@@ -5703,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.95">
       <c r="A18" s="65" t="s">
         <v>37</v>
       </c>
@@ -5716,7 +5790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.95">
       <c r="A19" s="65" t="s">
         <v>38</v>
       </c>
@@ -5729,7 +5803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.95">
       <c r="A20" s="65" t="s">
         <v>39</v>
       </c>
@@ -5742,7 +5816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.95">
       <c r="A21" s="65" t="s">
         <v>40</v>
       </c>
@@ -5755,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="32.1">
       <c r="A22" s="65" t="s">
         <v>41</v>
       </c>
@@ -5768,7 +5842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="32.1">
       <c r="A23" s="65" t="s">
         <v>42</v>
       </c>
@@ -5781,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.95">
       <c r="A24" s="65" t="s">
         <v>43</v>
       </c>
@@ -5794,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.95">
       <c r="A25" s="72" t="s">
         <v>44</v>
       </c>
@@ -5807,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="79" t="s">
         <v>22</v>
       </c>
@@ -5833,7 +5907,7 @@
       </c>
       <c r="G26" s="85"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="86" t="s">
         <v>23</v>
       </c>
@@ -5859,7 +5933,7 @@
       </c>
       <c r="G27" s="85"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="92" t="s">
         <v>53</v>
       </c>
@@ -5884,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="46" t="s">
         <v>54</v>
       </c>
@@ -5893,12 +5967,12 @@
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="85"/>
-      <c r="H31" s="295" t="s">
+      <c r="H31" s="297" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="295"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="297"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>56</v>
       </c>
@@ -5916,7 +5990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="105" t="s">
         <v>60</v>
       </c>
@@ -5932,7 +6006,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="113" t="s">
         <v>61</v>
       </c>
@@ -5948,7 +6022,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="113" t="s">
         <v>62</v>
       </c>
@@ -5964,7 +6038,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="113" t="s">
         <v>63</v>
       </c>
@@ -5980,7 +6054,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="113" t="s">
         <v>64</v>
       </c>
@@ -5996,7 +6070,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="113" t="s">
         <v>65</v>
       </c>
@@ -6012,7 +6086,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="113" t="s">
         <v>66</v>
       </c>
@@ -6028,7 +6102,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="121" t="s">
         <v>67</v>
       </c>
@@ -6044,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="129" t="s">
         <v>68</v>
       </c>
@@ -6075,7 +6149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="129" t="s">
         <v>69</v>
       </c>
@@ -6102,7 +6176,7 @@
       <c r="H42" s="137"/>
       <c r="I42" s="137"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="138"/>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
@@ -6110,7 +6184,7 @@
       <c r="E43" s="138"/>
       <c r="F43" s="138"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="85"/>
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
@@ -6118,7 +6192,7 @@
       <c r="E44" s="85"/>
       <c r="F44" s="85"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="92" t="s">
         <v>70</v>
       </c>
@@ -6143,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="92" t="s">
         <v>73</v>
       </c>
@@ -6168,7 +6242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="92" t="s">
         <v>72</v>
       </c>
@@ -6222,27 +6296,27 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="217"/>
-      <c r="B3" s="266" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="216"/>
+      <c r="B3" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="266" t="s">
+      <c r="D3" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="267" t="s">
+      <c r="E3" s="265" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6252,89 +6326,89 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="269">
+    <row r="4" spans="1:7">
+      <c r="A4" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="267">
         <f>(Fonctionnalités!E17)</f>
         <v>0.82154248366013061</v>
       </c>
-      <c r="C4" s="270">
+      <c r="C4" s="268">
         <f>'Assurance Qualité'!B49</f>
         <v>0.84</v>
       </c>
-      <c r="D4" s="270">
+      <c r="D4" s="268">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
         <v>0.83077124183006523</v>
       </c>
-      <c r="F4" s="281">
+      <c r="F4" s="279">
         <v>15</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="278">
         <f>D4*F4</f>
         <v>12.461568627450978</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="272">
+    <row r="5" spans="1:7">
+      <c r="A5" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="270">
         <f>(Fonctionnalités!E39)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="273">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C5" s="271">
         <f>'Assurance Qualité'!D49</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="273">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="271">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="281">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="F5" s="279">
         <v>20</v>
       </c>
-      <c r="G5" s="280">
+      <c r="G5" s="278">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="274" t="s">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="275">
+      <c r="B6" s="273">
         <f>(Fonctionnalités!E58)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="276">
+      <c r="C6" s="274">
         <f>'Assurance Qualité'!F49</f>
         <v>0</v>
       </c>
-      <c r="D6" s="276">
+      <c r="D6" s="274">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="281">
+      <c r="F6" s="279">
         <v>25</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="278">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="277" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="278"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="282"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="280"/>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="280">
+      <c r="G7" s="278">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6348,50 +6422,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="1025" width="11.5"/>
+    <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="s">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="298" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="306" t="s">
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-    </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="145"/>
       <c r="B4" s="146"/>
       <c r="C4" s="146"/>
@@ -6402,52 +6476,52 @@
       <c r="H4" s="146"/>
       <c r="I4" s="146"/>
     </row>
-    <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="311" t="s">
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="309" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="313" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="314"/>
-      <c r="F5" s="315" t="s">
+      <c r="B5" s="311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="311"/>
+      <c r="D5" s="312" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="312"/>
+      <c r="F5" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="316"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="309" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="312"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="304" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="310"/>
       <c r="B6" s="147" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="149" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="201" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
+      <c r="G6" s="200" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
       <c r="J6" s="152" t="s">
         <v>0</v>
       </c>
@@ -6459,24 +6533,28 @@
       </c>
       <c r="M6" s="152"/>
     </row>
-    <row r="7" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="296" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="284" t="s">
+    <row r="7" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="306" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="196"/>
-    </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="B7" s="307"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="195"/>
+      <c r="J7" t="s">
         <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60">
+      <c r="A8" s="201" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="153">
         <v>0.5</v>
@@ -6484,23 +6562,28 @@
       <c r="C8" s="154">
         <v>8</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="155">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="156">
         <v>8</v>
       </c>
       <c r="F8" s="157"/>
-      <c r="G8" s="203">
+      <c r="G8" s="202">
         <v>8</v>
       </c>
-      <c r="H8" s="283"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="290" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="204" t="s">
-        <v>88</v>
+      <c r="H8" s="281"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="287" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="203" t="s">
+        <v>91</v>
       </c>
       <c r="B9" s="158">
         <v>0.75</v>
@@ -6508,23 +6591,28 @@
       <c r="C9" s="159">
         <v>2</v>
       </c>
-      <c r="D9" s="160"/>
+      <c r="D9" s="160">
+        <v>1</v>
+      </c>
       <c r="E9" s="161">
         <v>2</v>
       </c>
       <c r="F9" s="162"/>
-      <c r="G9" s="205">
+      <c r="G9" s="204">
         <v>2</v>
       </c>
-      <c r="H9" s="283"/>
-      <c r="I9" s="197"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="196"/>
       <c r="J9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="206" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75">
+      <c r="A10" s="205" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="158">
         <v>1</v>
@@ -6532,22 +6620,27 @@
       <c r="C10" s="163">
         <v>4</v>
       </c>
-      <c r="D10" s="160"/>
+      <c r="D10" s="160">
+        <v>1</v>
+      </c>
       <c r="E10" s="164">
         <v>4</v>
       </c>
       <c r="F10" s="162"/>
-      <c r="G10" s="207">
+      <c r="G10" s="206">
         <v>4</v>
       </c>
-      <c r="H10" s="283"/>
-      <c r="I10" s="197"/>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="187">
+      <c r="H10" s="281"/>
+      <c r="I10" s="196"/>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.95">
+      <c r="A11" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="186">
         <f>SUMPRODUCT(B8:B10,C8:C10)</f>
         <v>9.5</v>
       </c>
@@ -6555,9 +6648,9 @@
         <f>SUM(C8:C10)</f>
         <v>14</v>
       </c>
-      <c r="D11" s="188">
+      <c r="D11" s="187">
         <f>SUMPRODUCT(D8:D10,E8:E10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="166">
         <f>SUM(E8:E10)</f>
@@ -6567,31 +6660,38 @@
         <f>SUMPRODUCT(F8:F10,G8:G10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="207">
+      <c r="G11" s="206">
         <f>SUM(G8:G10)</f>
         <v>14</v>
       </c>
-      <c r="H11" s="283"/>
-      <c r="I11" s="197"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="296" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="297"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="297"/>
-      <c r="F12" s="297"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="284" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="196"/>
-    </row>
-    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.25">
-      <c r="A13" s="202" t="s">
-        <v>93</v>
+      <c r="H11" s="281"/>
+      <c r="I11" s="196"/>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="306" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="307"/>
+      <c r="C12" s="307"/>
+      <c r="D12" s="307"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="282"/>
+      <c r="I12" s="195"/>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
+      <c r="A13" s="201" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="168">
         <v>0.5</v>
@@ -6599,23 +6699,28 @@
       <c r="C13" s="159">
         <v>6</v>
       </c>
-      <c r="D13" s="169"/>
+      <c r="D13" s="169">
+        <v>0.25</v>
+      </c>
       <c r="E13" s="161">
         <v>6</v>
       </c>
       <c r="F13" s="170"/>
-      <c r="G13" s="203">
+      <c r="G13" s="202">
         <v>6</v>
       </c>
-      <c r="H13" s="283"/>
-      <c r="I13" s="197"/>
+      <c r="H13" s="281"/>
+      <c r="I13" s="196"/>
       <c r="J13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="204" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" s="203" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="171">
         <v>1</v>
@@ -6623,20 +6728,25 @@
       <c r="C14" s="159">
         <v>2</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="172">
+        <v>1</v>
+      </c>
       <c r="E14" s="161">
         <v>2</v>
       </c>
       <c r="F14" s="173"/>
-      <c r="G14" s="205">
+      <c r="G14" s="204">
         <v>2</v>
       </c>
-      <c r="H14" s="283"/>
-      <c r="I14" s="197"/>
-    </row>
-    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="204" t="s">
-        <v>96</v>
+      <c r="H14" s="281"/>
+      <c r="I14" s="196"/>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75">
+      <c r="A15" s="203" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="171">
         <v>1</v>
@@ -6644,20 +6754,25 @@
       <c r="C15" s="159">
         <v>3</v>
       </c>
-      <c r="D15" s="172"/>
+      <c r="D15" s="172">
+        <v>1</v>
+      </c>
       <c r="E15" s="161">
         <v>3</v>
       </c>
       <c r="F15" s="173"/>
-      <c r="G15" s="205">
+      <c r="G15" s="204">
         <v>3</v>
       </c>
-      <c r="H15" s="283"/>
-      <c r="I15" s="197"/>
-    </row>
-    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="206" t="s">
-        <v>97</v>
+      <c r="H15" s="281"/>
+      <c r="I15" s="196"/>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75">
+      <c r="A16" s="205" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="174">
         <v>0.5</v>
@@ -6665,25 +6780,30 @@
       <c r="C16" s="159">
         <v>2</v>
       </c>
-      <c r="D16" s="175"/>
+      <c r="D16" s="175">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="161">
         <v>2</v>
       </c>
       <c r="F16" s="173"/>
-      <c r="G16" s="205">
+      <c r="G16" s="204">
         <v>2</v>
       </c>
-      <c r="H16" s="283"/>
-      <c r="I16" s="197"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="196"/>
       <c r="J16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="208" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="187">
+        <v>102</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.95">
+      <c r="A17" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="186">
         <f>SUMPRODUCT(B13:B16,C13:C16)</f>
         <v>9</v>
       </c>
@@ -6691,9 +6811,9 @@
         <f>SUM(C13:C16)</f>
         <v>13</v>
       </c>
-      <c r="D17" s="188">
+      <c r="D17" s="187">
         <f>SUMPRODUCT(D13:D16,E13:E16)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="164">
         <f>SUM(E13:E16)</f>
@@ -6703,31 +6823,38 @@
         <f>SUMPRODUCT(F13:F16,G13:G16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="207">
+      <c r="G17" s="206">
         <f>SUM(G13:G16)</f>
         <v>13</v>
       </c>
-      <c r="H17" s="283"/>
-      <c r="I17" s="197"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="296" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="297"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="297"/>
-      <c r="E18" s="297"/>
-      <c r="F18" s="297"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="284" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="196"/>
-    </row>
-    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="204" t="s">
-        <v>101</v>
+      <c r="H17" s="281"/>
+      <c r="I17" s="196"/>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="306" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="307"/>
+      <c r="C18" s="307"/>
+      <c r="D18" s="307"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="308"/>
+      <c r="H18" s="282"/>
+      <c r="I18" s="195"/>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="203" t="s">
+        <v>106</v>
       </c>
       <c r="B19" s="158">
         <v>1</v>
@@ -6735,20 +6862,25 @@
       <c r="C19" s="159">
         <v>2</v>
       </c>
-      <c r="D19" s="160"/>
+      <c r="D19" s="160">
+        <v>0</v>
+      </c>
       <c r="E19" s="161">
         <v>2</v>
       </c>
       <c r="F19" s="162"/>
-      <c r="G19" s="205">
+      <c r="G19" s="204">
         <v>2</v>
       </c>
-      <c r="H19" s="283"/>
-      <c r="I19" s="197"/>
-    </row>
-    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="206" t="s">
-        <v>102</v>
+      <c r="H19" s="281"/>
+      <c r="I19" s="196"/>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75">
+      <c r="A20" s="205" t="s">
+        <v>108</v>
       </c>
       <c r="B20" s="158">
         <v>1</v>
@@ -6756,22 +6888,27 @@
       <c r="C20" s="163">
         <v>2</v>
       </c>
-      <c r="D20" s="160"/>
+      <c r="D20" s="160">
+        <v>1</v>
+      </c>
       <c r="E20" s="164">
         <v>2</v>
       </c>
       <c r="F20" s="162"/>
-      <c r="G20" s="207">
+      <c r="G20" s="206">
         <v>2</v>
       </c>
-      <c r="H20" s="283"/>
-      <c r="I20" s="197"/>
-    </row>
-    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="208" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="187">
+      <c r="H20" s="281"/>
+      <c r="I20" s="196"/>
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.95">
+      <c r="A21" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="186">
         <f>SUMPRODUCT(B19:B20,C19:C20)</f>
         <v>4</v>
       </c>
@@ -6779,9 +6916,9 @@
         <f>SUM(C19:C20)</f>
         <v>4</v>
       </c>
-      <c r="D21" s="188">
+      <c r="D21" s="187">
         <f>SUMPRODUCT(D19:D20,E19:E20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="166">
         <f>SUM(E19:E20)</f>
@@ -6791,31 +6928,38 @@
         <f>SUMPRODUCT(F19:F20,G19:G20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="207">
+      <c r="G21" s="206">
         <f>SUM(G19:G20)</f>
         <v>4</v>
       </c>
-      <c r="H21" s="283"/>
-      <c r="I21" s="197"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="296" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="297"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="334" t="s">
-        <v>208</v>
-      </c>
-      <c r="I22" s="196"/>
-    </row>
-    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="206" t="s">
-        <v>104</v>
+      <c r="H21" s="281"/>
+      <c r="I21" s="196"/>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A22" s="306" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="307"/>
+      <c r="C22" s="307"/>
+      <c r="D22" s="307"/>
+      <c r="E22" s="307"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="308"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="195"/>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75">
+      <c r="A23" s="205" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="171">
         <v>1</v>
@@ -6823,20 +6967,25 @@
       <c r="C23" s="163">
         <v>4</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="172">
+        <v>1</v>
+      </c>
       <c r="E23" s="164">
         <v>4</v>
       </c>
       <c r="F23" s="177"/>
-      <c r="G23" s="207">
+      <c r="G23" s="206">
         <v>4</v>
       </c>
-      <c r="H23" s="283"/>
-      <c r="I23" s="197"/>
-    </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.25">
-      <c r="A24" s="206" t="s">
-        <v>105</v>
+      <c r="H23" s="281"/>
+      <c r="I23" s="196"/>
+      <c r="K23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="A24" s="205" t="s">
+        <v>112</v>
       </c>
       <c r="B24" s="171">
         <v>1</v>
@@ -6844,22 +6993,27 @@
       <c r="C24" s="163">
         <v>5</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="172">
+        <v>1</v>
+      </c>
       <c r="E24" s="164">
         <v>5</v>
       </c>
       <c r="F24" s="177"/>
-      <c r="G24" s="207">
+      <c r="G24" s="206">
         <v>5</v>
       </c>
-      <c r="H24" s="283"/>
-      <c r="I24" s="197"/>
-    </row>
-    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="208" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="187">
+      <c r="H24" s="281"/>
+      <c r="I24" s="196"/>
+      <c r="K24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.95">
+      <c r="A25" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="186">
         <f>SUMPRODUCT(B23:B24,C23:C24)</f>
         <v>9</v>
       </c>
@@ -6867,9 +7021,9 @@
         <f>SUM(C23:C24)</f>
         <v>9</v>
       </c>
-      <c r="D25" s="188">
+      <c r="D25" s="187">
         <f>SUMPRODUCT(D23:D24,E23:E24)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E25" s="166">
         <f>SUM(E23:E24)</f>
@@ -6879,31 +7033,38 @@
         <f>SUMPRODUCT(F23:F24,G23:G24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="207">
+      <c r="G25" s="206">
         <f>SUM(G23:G24)</f>
         <v>9</v>
       </c>
-      <c r="H25" s="283"/>
-      <c r="I25" s="197"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="296" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="297"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="297"/>
-      <c r="E26" s="297"/>
-      <c r="F26" s="297"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="284" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="196"/>
-    </row>
-    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="202" t="s">
-        <v>108</v>
+      <c r="H25" s="281"/>
+      <c r="I25" s="196"/>
+      <c r="K25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A26" s="306" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="307"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="308"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="195"/>
+      <c r="J26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.75">
+      <c r="A27" s="201" t="s">
+        <v>115</v>
       </c>
       <c r="B27" s="178">
         <v>0.75</v>
@@ -6911,23 +7072,28 @@
       <c r="C27" s="154">
         <v>2</v>
       </c>
-      <c r="D27" s="179"/>
+      <c r="D27" s="179">
+        <v>1</v>
+      </c>
       <c r="E27" s="156">
         <v>2</v>
       </c>
       <c r="F27" s="180"/>
-      <c r="G27" s="203">
+      <c r="G27" s="202">
         <v>2</v>
       </c>
-      <c r="H27" s="283"/>
-      <c r="I27" s="197"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="196"/>
       <c r="J27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="204" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="K27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75">
+      <c r="A28" s="203" t="s">
+        <v>117</v>
       </c>
       <c r="B28" s="171">
         <v>1</v>
@@ -6935,20 +7101,25 @@
       <c r="C28" s="159">
         <v>3</v>
       </c>
-      <c r="D28" s="172"/>
+      <c r="D28" s="172">
+        <v>1</v>
+      </c>
       <c r="E28" s="161">
         <v>3</v>
       </c>
       <c r="F28" s="177"/>
-      <c r="G28" s="205">
+      <c r="G28" s="204">
         <v>3</v>
       </c>
-      <c r="H28" s="283"/>
-      <c r="I28" s="197"/>
-    </row>
-    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="206" t="s">
-        <v>111</v>
+      <c r="H28" s="281"/>
+      <c r="I28" s="196"/>
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
+      <c r="A29" s="205" t="s">
+        <v>118</v>
       </c>
       <c r="B29" s="171">
         <v>1</v>
@@ -6956,20 +7127,25 @@
       <c r="C29" s="163">
         <v>3</v>
       </c>
-      <c r="D29" s="172"/>
+      <c r="D29" s="172">
+        <v>1</v>
+      </c>
       <c r="E29" s="164">
         <v>3</v>
       </c>
       <c r="F29" s="177"/>
-      <c r="G29" s="207">
+      <c r="G29" s="206">
         <v>3</v>
       </c>
-      <c r="H29" s="284"/>
-      <c r="I29" s="197"/>
-    </row>
-    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="208" t="s">
-        <v>91</v>
+      <c r="H29" s="282"/>
+      <c r="I29" s="196"/>
+      <c r="K29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.75">
+      <c r="A30" s="207" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="181">
         <f>SUMPRODUCT(B27:B29,C27:C29)</f>
@@ -6981,7 +7157,7 @@
       </c>
       <c r="D30" s="182">
         <f>SUMPRODUCT(D27:D29,E27:E29)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30" s="166">
         <f>SUM(E27:E29)</f>
@@ -6991,34 +7167,40 @@
         <f>SUMPRODUCT(F27:F29,G27:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="207">
+      <c r="G30" s="206">
         <f>SUM(G27:G29)</f>
         <v>8</v>
       </c>
-      <c r="H30" s="284"/>
-      <c r="I30" s="197"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="296" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="297"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="284" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="196"/>
-      <c r="J31" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="204" t="s">
+      <c r="H30" s="282"/>
+      <c r="I30" s="196"/>
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A31" s="306" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="307"/>
+      <c r="C31" s="307"/>
+      <c r="D31" s="307"/>
+      <c r="E31" s="307"/>
+      <c r="F31" s="307"/>
+      <c r="G31" s="308"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" t="s">
         <v>114</v>
+      </c>
+      <c r="K31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75">
+      <c r="A32" s="203" t="s">
+        <v>121</v>
       </c>
       <c r="B32" s="171">
         <v>0.5</v>
@@ -7026,23 +7208,28 @@
       <c r="C32" s="159">
         <v>3</v>
       </c>
-      <c r="D32" s="172"/>
+      <c r="D32" s="172">
+        <v>1</v>
+      </c>
       <c r="E32" s="161">
         <v>3</v>
       </c>
       <c r="F32" s="177"/>
-      <c r="G32" s="205">
+      <c r="G32" s="204">
         <v>3</v>
       </c>
-      <c r="H32" s="283"/>
-      <c r="I32" s="197"/>
+      <c r="H32" s="281"/>
+      <c r="I32" s="196"/>
       <c r="J32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="204" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30">
+      <c r="A33" s="203" t="s">
+        <v>123</v>
       </c>
       <c r="B33" s="171">
         <v>1</v>
@@ -7050,20 +7237,25 @@
       <c r="C33" s="159">
         <v>4</v>
       </c>
-      <c r="D33" s="172"/>
+      <c r="D33" s="172">
+        <v>1</v>
+      </c>
       <c r="E33" s="161">
         <v>4</v>
       </c>
       <c r="F33" s="177"/>
-      <c r="G33" s="205">
+      <c r="G33" s="204">
         <v>4</v>
       </c>
-      <c r="H33" s="284"/>
-      <c r="I33" s="197"/>
-    </row>
-    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="204" t="s">
-        <v>117</v>
+      <c r="H33" s="282"/>
+      <c r="I33" s="196"/>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18.75">
+      <c r="A34" s="203" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="171">
         <v>1</v>
@@ -7071,20 +7263,25 @@
       <c r="C34" s="159">
         <v>3</v>
       </c>
-      <c r="D34" s="172"/>
+      <c r="D34" s="172">
+        <v>1</v>
+      </c>
       <c r="E34" s="161">
         <v>3</v>
       </c>
       <c r="F34" s="177"/>
-      <c r="G34" s="205">
+      <c r="G34" s="204">
         <v>3</v>
       </c>
-      <c r="H34" s="284"/>
-      <c r="I34" s="197"/>
-    </row>
-    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="204" t="s">
-        <v>118</v>
+      <c r="H34" s="282"/>
+      <c r="I34" s="196"/>
+      <c r="K34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18.75">
+      <c r="A35" s="203" t="s">
+        <v>125</v>
       </c>
       <c r="B35" s="171">
         <v>0.75</v>
@@ -7092,23 +7289,28 @@
       <c r="C35" s="159">
         <v>4</v>
       </c>
-      <c r="D35" s="172"/>
+      <c r="D35" s="172">
+        <v>1</v>
+      </c>
       <c r="E35" s="161">
         <v>4</v>
       </c>
       <c r="F35" s="177"/>
-      <c r="G35" s="205">
+      <c r="G35" s="204">
         <v>4</v>
       </c>
-      <c r="H35" s="284"/>
-      <c r="I35" s="197"/>
+      <c r="H35" s="282"/>
+      <c r="I35" s="196"/>
       <c r="J35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="204" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="K35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18.75">
+      <c r="A36" s="203" t="s">
+        <v>127</v>
       </c>
       <c r="B36" s="171">
         <v>1</v>
@@ -7116,20 +7318,25 @@
       <c r="C36" s="159">
         <v>4</v>
       </c>
-      <c r="D36" s="172"/>
+      <c r="D36" s="172">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="161">
         <v>4</v>
       </c>
       <c r="F36" s="177"/>
-      <c r="G36" s="205">
+      <c r="G36" s="204">
         <v>4</v>
       </c>
-      <c r="H36" s="284"/>
-      <c r="I36" s="197"/>
-    </row>
-    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="204" t="s">
-        <v>121</v>
+      <c r="H36" s="282"/>
+      <c r="I36" s="196"/>
+      <c r="K36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75">
+      <c r="A37" s="203" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="171">
         <v>0.75</v>
@@ -7137,23 +7344,28 @@
       <c r="C37" s="159">
         <v>2</v>
       </c>
-      <c r="D37" s="172"/>
+      <c r="D37" s="172">
+        <v>0.75</v>
+      </c>
       <c r="E37" s="161">
         <v>2</v>
       </c>
       <c r="F37" s="177"/>
-      <c r="G37" s="205">
+      <c r="G37" s="204">
         <v>2</v>
       </c>
-      <c r="H37" s="284"/>
-      <c r="I37" s="197"/>
+      <c r="H37" s="282"/>
+      <c r="I37" s="196"/>
       <c r="J37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.25">
-      <c r="A38" s="206" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="K37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30">
+      <c r="A38" s="205" t="s">
+        <v>132</v>
       </c>
       <c r="B38" s="171">
         <v>1</v>
@@ -7161,23 +7373,28 @@
       <c r="C38" s="163">
         <v>12</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="172">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="164">
         <v>12</v>
       </c>
       <c r="F38" s="177"/>
-      <c r="G38" s="207">
+      <c r="G38" s="206">
         <v>12</v>
       </c>
-      <c r="H38" s="283"/>
-      <c r="I38" s="197"/>
+      <c r="H38" s="281"/>
+      <c r="I38" s="196"/>
       <c r="J38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="206" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="K38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30">
+      <c r="A39" s="205" t="s">
+        <v>135</v>
       </c>
       <c r="B39" s="171">
         <v>1</v>
@@ -7185,16 +7402,23 @@
       <c r="C39" s="163">
         <v>6</v>
       </c>
-      <c r="D39" s="172"/>
-      <c r="E39" s="164"/>
+      <c r="D39" s="172">
+        <v>1</v>
+      </c>
+      <c r="E39" s="164">
+        <v>6</v>
+      </c>
       <c r="F39" s="177"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="284"/>
-      <c r="I39" s="197"/>
-    </row>
-    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="206" t="s">
-        <v>126</v>
+      <c r="G39" s="206"/>
+      <c r="H39" s="282"/>
+      <c r="I39" s="196"/>
+      <c r="K39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18.75">
+      <c r="A40" s="205" t="s">
+        <v>136</v>
       </c>
       <c r="B40" s="171">
         <v>1</v>
@@ -7202,20 +7426,25 @@
       <c r="C40" s="163">
         <v>3</v>
       </c>
-      <c r="D40" s="172"/>
+      <c r="D40" s="172">
+        <v>1</v>
+      </c>
       <c r="E40" s="164">
         <v>3</v>
       </c>
       <c r="F40" s="177"/>
-      <c r="G40" s="207">
+      <c r="G40" s="206">
         <v>3</v>
       </c>
-      <c r="H40" s="284"/>
-      <c r="I40" s="197"/>
-    </row>
-    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="208" t="s">
-        <v>91</v>
+      <c r="H40" s="282"/>
+      <c r="I40" s="196"/>
+      <c r="K40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75">
+      <c r="A41" s="207" t="s">
+        <v>94</v>
       </c>
       <c r="B41" s="181">
         <f>SUMPRODUCT(B32:B40,C32:C40)</f>
@@ -7227,41 +7456,48 @@
       </c>
       <c r="D41" s="182">
         <f>SUMPRODUCT(D32:D40,E32:E40)</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="E41" s="166">
         <f>SUM(E32:E40)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F41" s="167">
         <f>SUMPRODUCT(F32:F40,G32:G40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="207">
+      <c r="G41" s="206">
         <f>SUM(G32:G40)</f>
         <v>35</v>
       </c>
-      <c r="H41" s="284"/>
-      <c r="I41" s="197"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="296" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="297"/>
-      <c r="C42" s="297"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="298"/>
-      <c r="H42" s="284" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="196"/>
-    </row>
-    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="209" t="s">
-        <v>128</v>
+      <c r="H41" s="282"/>
+      <c r="I41" s="196"/>
+      <c r="K41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A42" s="306" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="307"/>
+      <c r="C42" s="307"/>
+      <c r="D42" s="307"/>
+      <c r="E42" s="307"/>
+      <c r="F42" s="307"/>
+      <c r="G42" s="308"/>
+      <c r="H42" s="282"/>
+      <c r="I42" s="195"/>
+      <c r="J42" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30">
+      <c r="A43" s="208" t="s">
+        <v>138</v>
       </c>
       <c r="B43" s="178">
         <v>1</v>
@@ -7269,20 +7505,25 @@
       <c r="C43" s="183">
         <v>3</v>
       </c>
-      <c r="D43" s="179"/>
+      <c r="D43" s="179">
+        <v>1</v>
+      </c>
       <c r="E43" s="184">
         <v>3</v>
       </c>
       <c r="F43" s="180"/>
-      <c r="G43" s="210">
+      <c r="G43" s="209">
         <v>3</v>
       </c>
-      <c r="H43" s="284"/>
-      <c r="I43" s="197"/>
-    </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="206" t="s">
-        <v>129</v>
+      <c r="H43" s="282"/>
+      <c r="I43" s="196"/>
+      <c r="K43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30">
+      <c r="A44" s="205" t="s">
+        <v>139</v>
       </c>
       <c r="B44" s="171">
         <v>0</v>
@@ -7290,46 +7531,56 @@
       <c r="C44" s="163">
         <v>4</v>
       </c>
-      <c r="D44" s="172"/>
+      <c r="D44" s="172">
+        <v>1</v>
+      </c>
       <c r="E44" s="164">
         <v>4</v>
       </c>
       <c r="F44" s="177"/>
-      <c r="G44" s="207">
+      <c r="G44" s="206">
         <v>4</v>
       </c>
-      <c r="H44" s="285"/>
-      <c r="I44" s="197"/>
+      <c r="H44" s="283"/>
+      <c r="I44" s="196"/>
       <c r="J44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="204" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="287">
+        <v>140</v>
+      </c>
+      <c r="K44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="45">
+      <c r="A45" s="203" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="285">
         <v>1</v>
       </c>
       <c r="C45" s="159">
         <v>4</v>
       </c>
-      <c r="D45" s="185"/>
+      <c r="D45" s="172">
+        <v>0.75</v>
+      </c>
       <c r="E45" s="161">
         <v>4</v>
       </c>
-      <c r="F45" s="186"/>
-      <c r="G45" s="205">
+      <c r="F45" s="185"/>
+      <c r="G45" s="204">
         <v>4</v>
       </c>
-      <c r="H45" s="286"/>
-      <c r="I45" s="197"/>
-    </row>
-    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="187">
+      <c r="H45" s="284"/>
+      <c r="I45" s="196"/>
+      <c r="K45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18.75">
+      <c r="A46" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="186">
         <f>SUMPRODUCT(B43:B45,C43:C45)</f>
         <v>7</v>
       </c>
@@ -7337,117 +7588,136 @@
         <f>SUM(C43:C45)</f>
         <v>11</v>
       </c>
-      <c r="D46" s="188">
+      <c r="D46" s="187">
         <f>SUMPRODUCT(D43:D45,E43:E45)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E46" s="166">
         <f>SUM(E43:E45)</f>
         <v>11</v>
       </c>
-      <c r="F46" s="189">
+      <c r="F46" s="188">
         <f>SUMPRODUCT(F43:F45,G43:G45)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="212">
+      <c r="G46" s="211">
         <f>SUM(G43:G45)</f>
         <v>11</v>
       </c>
-      <c r="H46" s="285"/>
-      <c r="I46" s="197"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="296" t="s">
+      <c r="H46" s="283"/>
+      <c r="I46" s="196"/>
+      <c r="K46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18.600000000000001" customHeight="1">
+      <c r="A47" s="306" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="297"/>
-      <c r="C47" s="297"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="297"/>
-      <c r="F47" s="297"/>
-      <c r="G47" s="298"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-    </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="190">
+      <c r="B47" s="307"/>
+      <c r="C47" s="307"/>
+      <c r="D47" s="307"/>
+      <c r="E47" s="307"/>
+      <c r="F47" s="307"/>
+      <c r="G47" s="308"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="195"/>
+      <c r="K47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="212" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="189">
         <f t="shared" ref="B48:G48" si="0">B11+B17+B21+B25+B30+B41+B46</f>
         <v>84</v>
       </c>
-      <c r="C48" s="191">
+      <c r="C48" s="190">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D48" s="192">
+      <c r="D48" s="191">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="193">
+        <v>79</v>
+      </c>
+      <c r="E48" s="192">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F48" s="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="213">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F48" s="194">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="214">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H48" s="198"/>
-      <c r="I48" s="197"/>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="215" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="299">
+      <c r="H48" s="197"/>
+      <c r="I48" s="196"/>
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="214" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="315">
         <f>B48/C48</f>
         <v>0.84</v>
       </c>
-      <c r="C49" s="299"/>
-      <c r="D49" s="300">
+      <c r="C49" s="315"/>
+      <c r="D49" s="316">
         <f>D48/E48</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="300"/>
-      <c r="F49" s="301">
+        <v>0.79</v>
+      </c>
+      <c r="E49" s="316"/>
+      <c r="F49" s="317">
         <f>F48/G48</f>
         <v>0</v>
       </c>
-      <c r="G49" s="302"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H54" s="199"/>
-      <c r="I54" s="199"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="K49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="H50" s="198"/>
+      <c r="I50" s="198"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="H53" s="198"/>
+      <c r="I53" s="198"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="H54" s="198"/>
+      <c r="I54" s="198"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="H55" s="198"/>
+      <c r="I55" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="J5:L5"/>
@@ -7459,20 +7729,13 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A42:G42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26 H30 H41" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Les évaluations sont faites en terme de pourcentage. Veuillez entrer une valeur entre 0 et 1" sqref="B8:B10 D8:D10 F8:F10 B13:B16 D13:D16 F13:F16 B27:B29 D27:D29 F27:F29 H29 B32:B40 D32:D40 F32:F40 B43:B45 D43:D45 F43:F45 F19:F20 D19:D20 B19:B20 F23:F24 D23:D24 B23:B24 H12 H22 H18 H42:H45 H33:H37 H39:H40" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Les évaluations sont faites en terme de pourcentage. Veuillez entrer une valeur entre 0 et 1" sqref="B8:B10 D8:D10 F8:F10 B13:B16 D13:D16 F13:F16 B27:B29 D27:D29 F27:F29 H29 B32:B40 D32:D40 F32:F40 B43:B45 H39:H40 F43:F45 F19:F20 D19:D20 B19:B20 F23:F24 D23:D24 B23:B24 H12 H22 H18 H42:H45 H33:H37 D43:D45" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -7486,914 +7749,1047 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="325" t="s">
+    <row r="1" spans="1:7" ht="18.95">
+      <c r="A1" s="327" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="218"/>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="325" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="216"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.95">
+      <c r="A3" s="327" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="327" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="327"/>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="219" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="328">
+      <c r="B6" s="330">
         <v>9606529</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="328"/>
-      <c r="E6" s="328"/>
-      <c r="F6" s="329"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="220" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="221" t="s">
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="331"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.95">
+      <c r="A7" s="219" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="221" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="221" t="s">
+      <c r="C7" s="220" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="222" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="223" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="224">
+      <c r="E7" s="220" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="221" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="222" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="223">
         <f>19/20</f>
         <v>0.95</v>
       </c>
-      <c r="C8" s="224">
-        <v>1</v>
-      </c>
-      <c r="D8" s="224">
+      <c r="C8" s="223">
+        <v>1</v>
+      </c>
+      <c r="D8" s="223">
         <v>16</v>
       </c>
-      <c r="E8" s="224">
+      <c r="E8" s="223">
         <f t="shared" ref="E8:E13" si="0">B8*C8*D8</f>
         <v>15.2</v>
       </c>
-      <c r="F8" s="226" t="s">
-        <v>138</v>
+      <c r="F8" s="225" t="s">
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="223" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="224">
-        <v>1</v>
-      </c>
-      <c r="C9" s="224">
-        <v>1</v>
-      </c>
-      <c r="D9" s="224">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="222" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="223">
+        <v>1</v>
+      </c>
+      <c r="C9" s="223">
+        <v>1</v>
+      </c>
+      <c r="D9" s="223">
         <v>8</v>
       </c>
-      <c r="E9" s="224">
+      <c r="E9" s="223">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="226" t="s">
-        <v>140</v>
+      <c r="F9" s="225" t="s">
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="223" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="288">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="222" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="286">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" s="224">
-        <v>1</v>
-      </c>
-      <c r="D10" s="224">
+      <c r="C10" s="223">
+        <v>1</v>
+      </c>
+      <c r="D10" s="223">
         <v>10</v>
       </c>
-      <c r="E10" s="288">
+      <c r="E10" s="286">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F10" s="226" t="s">
-        <v>142</v>
+      <c r="F10" s="225" t="s">
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="223" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="288">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="222" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="286">
         <f>13/17</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="C11" s="224">
-        <v>1</v>
-      </c>
-      <c r="D11" s="224">
+      <c r="C11" s="223">
+        <v>1</v>
+      </c>
+      <c r="D11" s="223">
         <v>12</v>
       </c>
-      <c r="E11" s="288">
+      <c r="E11" s="286">
         <f t="shared" si="0"/>
         <v>9.1764705882352935</v>
       </c>
-      <c r="F11" s="226" t="s">
-        <v>144</v>
+      <c r="F11" s="225" t="s">
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="223" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="288">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="222" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="286">
         <f>17/18</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="C12" s="224">
-        <v>1</v>
-      </c>
-      <c r="D12" s="224">
+      <c r="C12" s="223">
+        <v>1</v>
+      </c>
+      <c r="D12" s="223">
         <v>10</v>
       </c>
-      <c r="E12" s="288">
+      <c r="E12" s="286">
         <f t="shared" si="0"/>
         <v>9.4444444444444446</v>
       </c>
-      <c r="F12" s="226" t="s">
-        <v>146</v>
+      <c r="F12" s="225" t="s">
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="223" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="224">
-        <f>13/16-0.1</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="C13" s="224">
-        <v>0</v>
-      </c>
-      <c r="D13" s="224">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="222" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="223">
+        <f>16/16-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="223">
+        <v>0</v>
+      </c>
+      <c r="D13" s="223">
         <v>12</v>
       </c>
-      <c r="E13" s="224">
+      <c r="E13" s="223">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="225" t="s">
-        <v>148</v>
+      <c r="F13" s="224" t="s">
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="223" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="224">
-        <v>1</v>
-      </c>
-      <c r="C14" s="224">
-        <v>1</v>
-      </c>
-      <c r="D14" s="224">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="222" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="223">
+        <v>1</v>
+      </c>
+      <c r="C14" s="223">
+        <v>1</v>
+      </c>
+      <c r="D14" s="223">
         <v>12</v>
       </c>
-      <c r="E14" s="224">
+      <c r="E14" s="223">
         <f t="shared" ref="E14:E16" si="1">B14*C14*D14</f>
         <v>12</v>
       </c>
-      <c r="F14" s="225"/>
+      <c r="F14" s="224"/>
       <c r="G14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="224">
-        <v>1</v>
-      </c>
-      <c r="C15" s="224">
-        <v>1</v>
-      </c>
-      <c r="D15" s="224">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="222" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="223">
+        <v>1</v>
+      </c>
+      <c r="C15" s="223">
+        <v>1</v>
+      </c>
+      <c r="D15" s="223">
         <v>10</v>
       </c>
-      <c r="E15" s="224">
+      <c r="E15" s="223">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F15" s="226"/>
+      <c r="F15" s="225"/>
       <c r="G15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="223" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="224">
-        <v>1</v>
-      </c>
-      <c r="C16" s="224">
-        <v>1</v>
-      </c>
-      <c r="D16" s="224">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="222" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="223">
+        <v>1</v>
+      </c>
+      <c r="C16" s="223">
+        <v>1</v>
+      </c>
+      <c r="D16" s="223">
         <v>10</v>
       </c>
-      <c r="E16" s="224">
+      <c r="E16" s="223">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F16" s="226" t="s">
-        <v>152</v>
+      <c r="F16" s="225" t="s">
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="227" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="330"/>
-      <c r="C17" s="330"/>
-      <c r="D17" s="289">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="226" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="332"/>
+      <c r="C17" s="332"/>
+      <c r="D17" s="292">
         <f>SUM(D8:D16)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="279">
+      <c r="E17" s="277">
         <f>SUM(E8:E16)/D17 - E19*D19 - E18*D18</f>
         <v>0.82154248366013061</v>
       </c>
-      <c r="F17" s="228"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="229" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="230">
+      <c r="F17" s="227"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="228" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="229">
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="229" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="230">
+    <row r="19" spans="1:7">
+      <c r="A19" s="228" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="229">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="332"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="333"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239" t="s">
+    <row r="20" spans="1:7" ht="24">
+      <c r="A20" s="333" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="334"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="334"/>
+      <c r="E20" s="334"/>
+      <c r="F20" s="335"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A21" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="317"/>
-      <c r="C21" s="318"/>
-      <c r="D21" s="318"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="319"/>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="239" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="231" t="s">
+      <c r="B21" s="319" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="321"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.95">
+      <c r="A22" s="238" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="230" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="231" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="231" t="s">
+      <c r="C22" s="230" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="231" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="240" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="239" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="231">
+      <c r="E22" s="230" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="239" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="238" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="252">
+        <v>1</v>
+      </c>
+      <c r="C23" s="252">
+        <v>1</v>
+      </c>
+      <c r="D23" s="230">
         <v>12</v>
       </c>
-      <c r="E23" s="231">
+      <c r="E23" s="230">
         <f>B23*C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="240"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="239" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="253"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="231">
+        <v>12</v>
+      </c>
+      <c r="F23" s="239"/>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="238" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="252">
+        <v>1</v>
+      </c>
+      <c r="C24" s="252">
+        <v>1</v>
+      </c>
+      <c r="D24" s="230">
         <v>8</v>
       </c>
-      <c r="E24" s="231">
+      <c r="E24" s="230">
         <f>B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="240"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="239" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="231">
         <v>8</v>
       </c>
-      <c r="E25" s="231">
+      <c r="F24" s="239" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90">
+      <c r="A25" s="238" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="252">
+        <v>1</v>
+      </c>
+      <c r="C25" s="252">
+        <v>1</v>
+      </c>
+      <c r="D25" s="230">
+        <v>8</v>
+      </c>
+      <c r="E25" s="230">
         <f>B25*C25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="240"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="239" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="253"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="231">
+        <v>8</v>
+      </c>
+      <c r="F25" s="239" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="238" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="252">
+        <v>1</v>
+      </c>
+      <c r="C26" s="252">
+        <v>1</v>
+      </c>
+      <c r="D26" s="230">
         <v>4</v>
       </c>
-      <c r="E26" s="231">
+      <c r="E26" s="230">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="240"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="239" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="253"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="231">
+        <v>4</v>
+      </c>
+      <c r="F26" s="239"/>
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="120">
+      <c r="A27" s="238" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="252">
+        <f>1-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="252">
+        <v>1</v>
+      </c>
+      <c r="D27" s="230">
         <v>5</v>
       </c>
-      <c r="E27" s="231">
+      <c r="E27" s="230">
         <f>B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="240"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="239" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="253"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="231">
+        <v>4.5</v>
+      </c>
+      <c r="F27" s="239" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="150">
+      <c r="A28" s="238" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="252">
+        <v>1</v>
+      </c>
+      <c r="C28" s="252">
+        <v>1</v>
+      </c>
+      <c r="D28" s="230">
         <v>5</v>
       </c>
-      <c r="E28" s="231">
+      <c r="E28" s="230">
         <f t="shared" ref="E28:E38" si="2">B28*C28*D28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="240"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="239" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="253"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="231">
+        <v>5</v>
+      </c>
+      <c r="F28" s="239" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="238" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="252">
+        <v>1</v>
+      </c>
+      <c r="C29" s="252">
+        <v>1</v>
+      </c>
+      <c r="D29" s="230">
         <v>14</v>
       </c>
-      <c r="E29" s="231">
+      <c r="E29" s="230">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="240"/>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="239" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="231">
+        <v>14</v>
+      </c>
+      <c r="F29" s="239" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45">
+      <c r="A30" s="238" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="252">
+        <v>1</v>
+      </c>
+      <c r="C30" s="252">
+        <v>1</v>
+      </c>
+      <c r="D30" s="230">
         <v>6</v>
       </c>
-      <c r="E30" s="231">
+      <c r="E30" s="230">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="240"/>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="239" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75">
+      <c r="A31" s="238" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="252">
+        <v>0.85</v>
+      </c>
+      <c r="C31" s="252">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="230">
+        <v>8</v>
+      </c>
+      <c r="E31" s="230">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F31" s="239" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="238" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="252">
+        <v>1</v>
+      </c>
+      <c r="C32" s="252">
+        <v>1</v>
+      </c>
+      <c r="D32" s="230">
+        <v>4</v>
+      </c>
+      <c r="E32" s="230">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="239"/>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="252">
+        <v>1</v>
+      </c>
+      <c r="C33" s="252">
+        <v>1</v>
+      </c>
+      <c r="D33" s="230">
+        <v>4</v>
+      </c>
+      <c r="E33" s="230">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="239"/>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45">
+      <c r="A34" s="251" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="252">
+        <v>1</v>
+      </c>
+      <c r="C34" s="252">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="252">
+        <v>6</v>
+      </c>
+      <c r="E34" s="230">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="F34" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="150">
+      <c r="A35" s="251" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="252">
+        <v>1</v>
+      </c>
+      <c r="C35" s="252">
+        <v>1</v>
+      </c>
+      <c r="D35" s="252">
+        <v>6</v>
+      </c>
+      <c r="E35" s="230">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="253" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="251" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="252">
+        <v>1</v>
+      </c>
+      <c r="C36" s="252">
+        <v>1</v>
+      </c>
+      <c r="D36" s="252">
+        <v>4</v>
+      </c>
+      <c r="E36" s="230">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="253"/>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="251" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="252">
+        <v>1</v>
+      </c>
+      <c r="C37" s="252">
+        <v>1</v>
+      </c>
+      <c r="D37" s="252">
+        <v>4</v>
+      </c>
+      <c r="E37" s="230">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="253"/>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="251" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="252">
+        <v>1</v>
+      </c>
+      <c r="C38" s="252">
+        <v>1</v>
+      </c>
+      <c r="D38" s="252">
+        <v>2</v>
+      </c>
+      <c r="E38" s="230">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="253"/>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.95">
+      <c r="A39" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="253"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="231">
-        <v>8</v>
-      </c>
-      <c r="E31" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="240"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="239" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="253"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="231">
-        <v>4</v>
-      </c>
-      <c r="E32" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="240"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="239" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="231">
-        <v>4</v>
-      </c>
-      <c r="E33" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="240"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="252" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="253"/>
-      <c r="C34" s="253"/>
-      <c r="D34" s="253">
-        <v>6</v>
-      </c>
-      <c r="E34" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="254"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="252" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="253"/>
-      <c r="C35" s="253"/>
-      <c r="D35" s="253">
-        <v>6</v>
-      </c>
-      <c r="E35" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="254"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="252" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="253"/>
-      <c r="C36" s="253"/>
-      <c r="D36" s="253">
-        <v>4</v>
-      </c>
-      <c r="E36" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="254"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="252" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="253"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253">
-        <v>4</v>
-      </c>
-      <c r="E37" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="254"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="252" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253">
-        <v>2</v>
-      </c>
-      <c r="E38" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="254"/>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="241" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="263"/>
-      <c r="D39" s="263">
+      <c r="B39" s="241"/>
+      <c r="C39" s="261"/>
+      <c r="D39" s="261">
         <f>SUM(D23:D38)</f>
         <v>100</v>
       </c>
-      <c r="E39" s="243">
+      <c r="E39" s="242">
         <f>SUM(E23:E38)/D39 -E40*D40 -E41*D41-E42*D42</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="244"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="265"/>
-      <c r="D40" s="264">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F39" s="243"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.95">
+      <c r="A40" s="231" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="263"/>
+      <c r="D40" s="262">
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="232" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="233">
+    <row r="41" spans="1:7" ht="15.95">
+      <c r="A41" s="231" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="232">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="232" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="234">
+    <row r="42" spans="1:7">
+      <c r="A42" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="233">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="320" t="s">
+    <row r="43" spans="1:7" ht="24" customHeight="1">
+      <c r="A43" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="321"/>
-      <c r="C43" s="321"/>
-      <c r="D43" s="321"/>
-      <c r="E43" s="321"/>
-      <c r="F43" s="322"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="245" t="s">
+      <c r="B43" s="323"/>
+      <c r="C43" s="323"/>
+      <c r="D43" s="323"/>
+      <c r="E43" s="323"/>
+      <c r="F43" s="324"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="244" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="323"/>
-      <c r="C44" s="323"/>
-      <c r="D44" s="323"/>
-      <c r="E44" s="323"/>
-      <c r="F44" s="324"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="246" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="235" t="s">
+      <c r="B44" s="325"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="325"/>
+      <c r="E44" s="325"/>
+      <c r="F44" s="326"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="245" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="235" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="235" t="s">
+      <c r="C45" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="235" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="247" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="248" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="236">
+      <c r="E45" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="246" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="247" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="235"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235">
         <v>5</v>
       </c>
-      <c r="E46" s="236">
-        <f t="shared" ref="E46:E52" si="3">B46*C46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="247"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="248" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="236"/>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236">
+      <c r="E46" s="235">
+        <f t="shared" ref="E46:E57" si="3">B46*C46*D46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="246"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="247" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235">
         <v>10</v>
       </c>
-      <c r="E47" s="236">
+      <c r="E47" s="235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="249"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="248" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="236"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236">
-        <v>8</v>
-      </c>
-      <c r="E48" s="236">
+      <c r="F47" s="248"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="289" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="290"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="290">
+        <v>0</v>
+      </c>
+      <c r="E48" s="290">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="247"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="248" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="236"/>
-      <c r="C49" s="236"/>
-      <c r="D49" s="236">
-        <v>6</v>
-      </c>
-      <c r="E49" s="236">
+      <c r="F48" s="246"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="289" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="290"/>
+      <c r="C49" s="290"/>
+      <c r="D49" s="290">
+        <v>0</v>
+      </c>
+      <c r="E49" s="290">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="249"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="248" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="236"/>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236">
-        <v>6</v>
-      </c>
-      <c r="E50" s="236">
+      <c r="F49" s="248"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="289" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="290"/>
+      <c r="C50" s="290"/>
+      <c r="D50" s="290">
+        <v>0</v>
+      </c>
+      <c r="E50" s="290">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="247"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="248" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="236"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236">
+      <c r="F50" s="246"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="247" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="235">
         <v>15</v>
       </c>
-      <c r="E51" s="236">
+      <c r="E51" s="235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="247"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="248" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="236"/>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236">
-        <v>8</v>
-      </c>
-      <c r="E52" s="236">
+      <c r="F51" s="246"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="290"/>
+      <c r="C52" s="290"/>
+      <c r="D52" s="290">
+        <v>0</v>
+      </c>
+      <c r="E52" s="290">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="247"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="248" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="256"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="236">
+      <c r="F52" s="246"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="291"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="290">
+        <v>0</v>
+      </c>
+      <c r="E53" s="290">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="246"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="258" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="256"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="254">
         <v>12</v>
       </c>
-      <c r="E53" s="236">
-        <f t="shared" ref="E53:E57" si="4">B53*C53*D53</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="247"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="260" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="258"/>
-      <c r="C54" s="258"/>
-      <c r="D54" s="255">
+      <c r="E54" s="235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="255"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="258" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="256"/>
+      <c r="C55" s="256"/>
+      <c r="D55" s="254">
         <v>12</v>
       </c>
-      <c r="E54" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="257"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="260" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="258"/>
-      <c r="C55" s="258"/>
-      <c r="D55" s="255">
-        <v>12</v>
-      </c>
-      <c r="E55" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="257"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="260" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="258"/>
-      <c r="C56" s="258"/>
-      <c r="D56" s="255">
+      <c r="E55" s="235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="255"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="258" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="256"/>
+      <c r="C56" s="256"/>
+      <c r="D56" s="254">
         <v>4</v>
       </c>
-      <c r="E56" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="257"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="260" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="255">
+      <c r="E56" s="235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="255"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="258" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="256"/>
+      <c r="C57" s="256"/>
+      <c r="D57" s="254">
         <v>2</v>
       </c>
-      <c r="E57" s="236">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="257"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="261" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="259"/>
-      <c r="C58" s="259"/>
-      <c r="D58" s="262">
+      <c r="E57" s="235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="255"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="259" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="257"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="260">
         <f>SUM(D46:D57)</f>
-        <v>100</v>
-      </c>
-      <c r="E58" s="250">
+        <v>60</v>
+      </c>
+      <c r="E58" s="249">
         <f>SUM(E46:E57)/D58 - D59*E59  - D60*E60 - D61*E61</f>
         <v>0</v>
       </c>
-      <c r="F58" s="251"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="237" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="233">
+      <c r="F58" s="250"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="236" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="232">
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="237" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="233">
+    <row r="60" spans="1:6">
+      <c r="A60" s="236" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="232">
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="238" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="234">
+    <row r="61" spans="1:6">
+      <c r="A61" s="237" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="233">
         <v>0.05</v>
       </c>
     </row>
@@ -8434,15 +8830,15 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
         <v>51</v>
       </c>
@@ -8461,11 +8857,11 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="294" t="s">
+      <c r="G2" s="296" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="52" t="s">
         <v>52</v>
       </c>
@@ -8474,11 +8870,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="294"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G3" s="296"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.1">
       <c r="A4" s="58" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8489,7 +8885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="32.1">
       <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
@@ -8502,9 +8898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="32.1">
       <c r="A6" s="65" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -8515,9 +8911,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.95">
       <c r="A7" s="65" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -8528,9 +8924,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32.1">
       <c r="A8" s="65" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8541,9 +8937,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.95">
       <c r="A9" s="65" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8554,9 +8950,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.95">
       <c r="A10" s="65" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8567,9 +8963,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.95">
       <c r="A11" s="65" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8580,9 +8976,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.95">
       <c r="A12" s="65" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8593,9 +8989,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32.1">
       <c r="A13" s="65" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8606,9 +9002,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.95">
       <c r="A14" s="65" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8619,9 +9015,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.95">
       <c r="A15" s="65" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8632,9 +9028,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.95">
       <c r="A16" s="65" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8645,9 +9041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.95">
       <c r="A17" s="65" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8658,9 +9054,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="32.1">
       <c r="A18" s="65" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8671,9 +9067,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.95">
       <c r="A19" s="65" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8684,9 +9080,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.95">
       <c r="A20" s="65" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8697,9 +9093,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="32.1">
       <c r="A21" s="65" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8710,9 +9106,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.95">
       <c r="A22" s="65" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8723,9 +9119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.95">
       <c r="A23" s="65" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8736,9 +9132,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.95">
       <c r="A24" s="65" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8749,9 +9145,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.95">
       <c r="A25" s="65" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8762,9 +9158,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="32.1">
       <c r="A26" s="65" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8775,9 +9171,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="32.1">
       <c r="A27" s="72" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8788,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="79" t="s">
         <v>22</v>
       </c>
@@ -8814,7 +9210,7 @@
       </c>
       <c r="G28" s="85"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="86" t="s">
         <v>23</v>
       </c>
@@ -8840,7 +9236,7 @@
       </c>
       <c r="G29" s="85"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="92" t="s">
         <v>53</v>
       </c>
@@ -8865,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="46" t="s">
         <v>54</v>
       </c>
@@ -8874,12 +9270,12 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
-      <c r="H33" s="295" t="s">
+      <c r="H33" s="297" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="295"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="297"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
         <v>56</v>
       </c>
@@ -8897,7 +9293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="105" t="s">
         <v>60</v>
       </c>
@@ -8913,7 +9309,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="113" t="s">
         <v>61</v>
       </c>
@@ -8929,7 +9325,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="113" t="s">
         <v>62</v>
       </c>
@@ -8945,7 +9341,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="113" t="s">
         <v>63</v>
       </c>
@@ -8961,7 +9357,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="113" t="s">
         <v>64</v>
       </c>
@@ -8977,7 +9373,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="113" t="s">
         <v>65</v>
       </c>
@@ -8993,7 +9389,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="113" t="s">
         <v>66</v>
       </c>
@@ -9009,7 +9405,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="121" t="s">
         <v>67</v>
       </c>
@@ -9025,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="129" t="s">
         <v>68</v>
       </c>
@@ -9056,7 +9452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="129" t="s">
         <v>69</v>
       </c>
@@ -9083,7 +9479,7 @@
       <c r="H44" s="137"/>
       <c r="I44" s="137"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="138"/>
       <c r="B45" s="138"/>
       <c r="C45" s="138"/>
@@ -9091,7 +9487,7 @@
       <c r="E45" s="138"/>
       <c r="F45" s="138"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="85"/>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -9099,7 +9495,7 @@
       <c r="E46" s="85"/>
       <c r="F46" s="85"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="92" t="s">
         <v>70</v>
       </c>
@@ -9124,9 +9520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="92" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9149,7 +9545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="92" t="s">
         <v>72</v>
       </c>
@@ -9196,9 +9592,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9334,52 +9733,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>